--- a/RSI.xlsx
+++ b/RSI.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1503"/>
+  <dimension ref="A1:G1828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34878,6 +34878,7481 @@
       </c>
       <c r="G1503" t="inlineStr"/>
     </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45352.69097222222</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>200.09</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>0.05737537725403286</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>0.09106733804733509</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>32.72451501787103</v>
+      </c>
+      <c r="F1504" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45352.69167824074</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>-0.04771756384690207</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>0.06331035766848767</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>31.29883621619558</v>
+      </c>
+      <c r="F1505" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45352.69238425926</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>-0.126320665121483</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>0.02538415311049354</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>32.2075899035367</v>
+      </c>
+      <c r="F1506" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1506" t="inlineStr"/>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45352.69309027777</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>200.01</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>-0.1848692981414786</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>-0.01666653713990088</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>32.68703129426589</v>
+      </c>
+      <c r="F1507" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1507" t="inlineStr"/>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45352.6937962963</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>199.12</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>-0.2996311126370017</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>-0.07325945223932105</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>24.41295536406184</v>
+      </c>
+      <c r="F1508" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45352.69450231481</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>199.08</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>-0.3893204987786589</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>-0.1364716615471886</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>24.1174737210314</v>
+      </c>
+      <c r="F1509" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45352.69520833333</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>199.07</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>-0.4559509808123892</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>-0.2003675254002288</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>24.039139099287</v>
+      </c>
+      <c r="F1510" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45352.69591435185</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>198.6</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>-0.5404512048466472</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>-0.2683842612895125</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>20.6450689398265</v>
+      </c>
+      <c r="F1511" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45352.69662037037</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>198.92</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>-0.5749690304593003</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>-0.3297012151234701</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>28.08949230726473</v>
+      </c>
+      <c r="F1512" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45352.69732638889</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>199.25</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>-0.5691357709767715</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>-0.3775881262941304</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>34.87459219704989</v>
+      </c>
+      <c r="F1513" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45352.69803240741</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>199.16</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>-0.565259162881091</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>-0.4151223336115226</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>33.93418790190782</v>
+      </c>
+      <c r="F1514" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45352.69873842593</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>199.55</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>-0.5246691233430454</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>-0.4370316915578271</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>41.31855149702188</v>
+      </c>
+      <c r="F1515" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45352.69945601852</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>199.46</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>-0.4940681621854139</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>-0.4484389856833445</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>40.2018304332118</v>
+      </c>
+      <c r="F1516" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1516" t="inlineStr"/>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45352.70016203704</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>199.11</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>-0.4923828716808885</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>-0.4572277628828533</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>36.11406291426828</v>
+      </c>
+      <c r="F1517" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45352.70087962963</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>-0.4304085515228451</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>-0.4518639206108517</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>47.45690190213016</v>
+      </c>
+      <c r="F1518" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45352.70158564814</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>199.88</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>-0.3705664653417671</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>-0.4356044295570348</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>48.59645649436286</v>
+      </c>
+      <c r="F1519" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45352.70229166667</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>-0.3258404267060087</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>-0.4136516289868296</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>47.48732796700811</v>
+      </c>
+      <c r="F1520" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45352.70299768518</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>199.44</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>-0.3158033260460229</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>-0.3940819683986683</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>42.75807431744218</v>
+      </c>
+      <c r="F1521" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1521" t="inlineStr"/>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45352.7037037037</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>199.93</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>-0.2652522833517423</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>-0.3683160313892831</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>50.04980068213512</v>
+      </c>
+      <c r="F1522" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45352.70440972222</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>200.22</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>-0.1994900443935421</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>-0.3345508339901349</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>53.80072170179485</v>
+      </c>
+      <c r="F1523" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45352.70511574074</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>-0.1712205974104108</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>-0.3018847866741901</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>49.39310624951105</v>
+      </c>
+      <c r="F1524" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45352.70582175926</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>200.21</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>-0.1223915936782021</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>-0.2659861480749925</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>53.37788291095425</v>
+      </c>
+      <c r="F1525" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45352.70652777778</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>200.37</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>-0.06997694296291002</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>-0.226784307052576</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>55.33278991851905</v>
+      </c>
+      <c r="F1526" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1526" t="inlineStr"/>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45352.7072337963</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>200.21</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>-0.04087740815219831</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>-0.1896029272725005</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>52.94211732869493</v>
+      </c>
+      <c r="F1527" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1527" t="inlineStr"/>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45352.70795138889</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>200.11</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>-0.02558999588566735</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>-0.1568003409951339</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>51.44603951795775</v>
+      </c>
+      <c r="F1528" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45352.70865740741</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>200.36</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>0.006621965244903549</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>-0.1241158797471264</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>54.87890802897185</v>
+      </c>
+      <c r="F1529" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45352.70936342593</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>200.1</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>0.01104305199686451</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>-0.09708409339832823</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>50.85211290796332</v>
+      </c>
+      <c r="F1530" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45352.71006944445</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>199.92</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>2.204529829441526e-05</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>-0.0776628656590037</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>48.21447396755045</v>
+      </c>
+      <c r="F1531" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45352.71077546296</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>200.28</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>0.02010505092991366</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>-0.05810928234122022</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>53.41844644474568</v>
+      </c>
+      <c r="F1532" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45352.71148148148</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>199.85</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>0.001308487810177894</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>-0.04622572831094061</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>47.30377611007761</v>
+      </c>
+      <c r="F1533" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45352.71219907407</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>200.13</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>0.008903106587496268</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>-0.03519996133125324</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>51.21941854120621</v>
+      </c>
+      <c r="F1534" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45352.71290509259</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>200.29</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>0.02751537934364023</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>-0.02265689319627454</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>53.35245818785958</v>
+      </c>
+      <c r="F1535" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45352.71362268519</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>199.95</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>0.01466157162445825</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>-0.01519320023212798</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>48.49923299720777</v>
+      </c>
+      <c r="F1536" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1536" t="inlineStr"/>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45352.7143287037</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>200.12</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>0.01798509467496956</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>-0.008557541250708475</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>50.90402007428577</v>
+      </c>
+      <c r="F1537" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45352.71503472222</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>199.97</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>0.008418224191188983</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>-0.005162388162328984</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>48.74136317724914</v>
+      </c>
+      <c r="F1538" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45352.71574074074</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>0.003220041057829803</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>-0.003485902318297227</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>49.20615800419083</v>
+      </c>
+      <c r="F1539" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45352.71644675926</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>199.92</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>-0.007271071551627983</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>-0.004242936164963378</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>47.95732995473061</v>
+      </c>
+      <c r="F1540" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45352.71715277778</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>199.61</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>-0.04013708773791791</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>-0.01142176647955429</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>43.36456163074379</v>
+      </c>
+      <c r="F1541" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45352.71787037037</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>199.62</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>-0.06463169201217056</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>-0.02206375158607754</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>43.55235849377045</v>
+      </c>
+      <c r="F1542" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45352.71857638889</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>199.86</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>-0.06394077864285919</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>-0.03043915699743387</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>48.00821049810241</v>
+      </c>
+      <c r="F1543" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45352.71928240741</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>200.5</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>-0.01161666385331728</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>-0.02667465836861055</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>57.61630359783392</v>
+      </c>
+      <c r="F1544" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45352.71998842592</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>200.37</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>0.01914002623936994</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>-0.01751172144701445</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>55.3776592976234</v>
+      </c>
+      <c r="F1545" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1545" t="inlineStr"/>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45352.72069444445</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>200.02</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>0.01509880022950938</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>-0.01098961711170969</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>49.77075311837078</v>
+      </c>
+      <c r="F1546" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45352.72140046296</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>199.79</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>-0.006587046931855411</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>-0.01010910307573883</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>46.44298330188653</v>
+      </c>
+      <c r="F1547" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45352.72210648148</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>199.82</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>-0.02110915457188867</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>-0.0123091133749688</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>46.9413094723046</v>
+      </c>
+      <c r="F1548" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45352.7228125</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>199.82</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>-0.03224631406683898</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>-0.01629655351334284</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>46.9413094723046</v>
+      </c>
+      <c r="F1549" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45352.72351851852</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>199.94</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>-0.03103187989259482</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>-0.01924361878919324</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>49.13679412784864</v>
+      </c>
+      <c r="F1550" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45352.72422453704</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>199.93</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>-0.03052448126723561</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>-0.02149979128480171</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>48.95500228544577</v>
+      </c>
+      <c r="F1551" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45352.72494212963</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>200.05</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>-0.02020643982268666</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>-0.02124112099237871</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>51.28418457312017</v>
+      </c>
+      <c r="F1552" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45352.72564814815</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>199.96</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>-0.01907171857897083</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>-0.02080724050969713</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>49.46128949844916</v>
+      </c>
+      <c r="F1553" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45352.72636574074</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>199.87</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>-0.0251448376207577</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>-0.02167475993190925</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>47.63775417931642</v>
+      </c>
+      <c r="F1554" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1554" t="inlineStr"/>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45352.72707175926</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>200.04</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>-0.01605517490281727</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>-0.02055084292609085</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>51.29076648867635</v>
+      </c>
+      <c r="F1555" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45352.72777777778</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>199.66</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>-0.03906406964057396</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>-0.02425348826898747</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>43.91561132487814</v>
+      </c>
+      <c r="F1556" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45352.72848379629</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>-0.0534549236984958</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>-0.03009377535488914</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>44.8151358901754</v>
+      </c>
+      <c r="F1557" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45352.72920138889</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>199.63</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>-0.06970468202081292</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>-0.0380159566880739</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>43.5002574716366</v>
+      </c>
+      <c r="F1558" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1558" t="inlineStr"/>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45352.72990740741</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>199.47</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>-0.09440515156651941</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>-0.049293795663763</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>40.57020934175446</v>
+      </c>
+      <c r="F1559" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45352.73061342593</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>199.22</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>-0.1326245490560041</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>-0.06595994634221122</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>36.44005176569001</v>
+      </c>
+      <c r="F1560" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45352.73131944444</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>199.27</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>-0.1570685265870111</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>-0.0841816623911712</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>37.80381137515855</v>
+      </c>
+      <c r="F1561" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1561" t="inlineStr"/>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45352.73202546296</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>199.2</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>-0.1800138818994697</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>-0.1033481062928309</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>36.61920010130304</v>
+      </c>
+      <c r="F1562" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45352.73274305555</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>199.57</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>-0.1664239023647838</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>-0.1159632655072215</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>46.213286965455</v>
+      </c>
+      <c r="F1563" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45352.73344907408</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>199.6</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>-0.1514867514203786</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>-0.1230679626898529</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>46.91494007826178</v>
+      </c>
+      <c r="F1564" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45352.73415509259</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>199.47</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>-0.1484278810061141</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>-0.1281399463531052</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>44.2227835476714</v>
+      </c>
+      <c r="F1565" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45352.73486111111</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>199.16</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>-0.169069189017705</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>-0.1363257948860251</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>38.54293279292039</v>
+      </c>
+      <c r="F1566" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45352.73556712963</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>199.06</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>-0.1912916475564828</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>-0.1473189654201166</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>36.89666329527532</v>
+      </c>
+      <c r="F1567" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45352.73627314815</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>199.01</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>-0.2105110478640029</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>-0.1599573819088939</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>36.06715123900984</v>
+      </c>
+      <c r="F1568" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45352.73697916666</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>199.53</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>-0.1816885147959795</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>-0.164303608486311</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>48.9272162034913</v>
+      </c>
+      <c r="F1569" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45352.73769675926</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>199.7</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>-0.1434749801723569</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>-0.1601378828235202</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>52.30493007211659</v>
+      </c>
+      <c r="F1570" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1570" t="inlineStr"/>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45352.73840277778</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>199.55</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>-0.1238663706504326</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>-0.1528835803889027</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>49.21225955866436</v>
+      </c>
+      <c r="F1571" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45352.7391087963</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>199.54</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>-0.1078896381685581</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>-0.1438847919448338</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>49.00423335124555</v>
+      </c>
+      <c r="F1572" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45352.73981481481</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>199.63</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>-0.08696325644442027</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>-0.1325004848447511</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>51.01132689844651</v>
+      </c>
+      <c r="F1573" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45352.74052083334</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>199.8</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>-0.05601565530506036</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>-0.117203518936813</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>54.64270701981959</v>
+      </c>
+      <c r="F1574" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45352.74122685185</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>199.87</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>-0.02554655862545019</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>-0.09887212687454042</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>56.08618771014023</v>
+      </c>
+      <c r="F1575" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45352.74193287037</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>199.69</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>-0.01574260471832645</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>-0.08224622244329763</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>51.54365357520695</v>
+      </c>
+      <c r="F1576" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45352.74265046296</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>199.57</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>-0.01745469091963514</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>-0.06928791613856514</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>48.71118933183462</v>
+      </c>
+      <c r="F1577" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45352.74336805556</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>199.56</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>-0.01939487593870126</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>-0.05930930809859237</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>48.47214146042479</v>
+      </c>
+      <c r="F1578" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45352.74407407407</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>199.48</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>-0.02707570607114462</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>-0.05286258769310282</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>46.50589121771097</v>
+      </c>
+      <c r="F1579" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45352.74478009259</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>199.59</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>-0.02400996664701438</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>-0.04709206348388514</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>49.53703625462647</v>
+      </c>
+      <c r="F1580" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1580" t="inlineStr"/>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="2" t="n">
+        <v>45352.74548611111</v>
+      </c>
+      <c r="B1581" t="n">
+        <v>199.47</v>
+      </c>
+      <c r="C1581" t="n">
+        <v>-0.03090706576887214</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>-0.04385506394088254</v>
+      </c>
+      <c r="E1581" t="n">
+        <v>46.44521096619697</v>
+      </c>
+      <c r="F1581" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1581" t="inlineStr"/>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="2" t="n">
+        <v>45352.74619212963</v>
+      </c>
+      <c r="B1582" t="n">
+        <v>199.29</v>
+      </c>
+      <c r="C1582" t="n">
+        <v>-0.0503175329923522</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>-0.04514755775117647</v>
+      </c>
+      <c r="E1582" t="n">
+        <v>42.19134111765383</v>
+      </c>
+      <c r="F1582" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1582" t="inlineStr"/>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="2" t="n">
+        <v>45352.74690972222</v>
+      </c>
+      <c r="B1583" t="n">
+        <v>199.28</v>
+      </c>
+      <c r="C1583" t="n">
+        <v>-0.06574946562619743</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>-0.04926793932618067</v>
+      </c>
+      <c r="E1583" t="n">
+        <v>41.96140591436696</v>
+      </c>
+      <c r="F1583" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1583" t="inlineStr"/>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="2" t="n">
+        <v>45352.74761574074</v>
+      </c>
+      <c r="B1584" t="n">
+        <v>199.54</v>
+      </c>
+      <c r="C1584" t="n">
+        <v>-0.05634998873676977</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>-0.05068434920829849</v>
+      </c>
+      <c r="E1584" t="n">
+        <v>49.64528175158063</v>
+      </c>
+      <c r="F1584" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1584" t="inlineStr"/>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="2" t="n">
+        <v>45352.74833333334</v>
+      </c>
+      <c r="B1585" t="n">
+        <v>199.48</v>
+      </c>
+      <c r="C1585" t="n">
+        <v>-0.05312988588909207</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>-0.05117345654445721</v>
+      </c>
+      <c r="E1585" t="n">
+        <v>48.0638706512167</v>
+      </c>
+      <c r="F1585" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1585" t="inlineStr"/>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="2" t="n">
+        <v>45352.74903935185</v>
+      </c>
+      <c r="B1586" t="n">
+        <v>199.32</v>
+      </c>
+      <c r="C1586" t="n">
+        <v>-0.06276507726610703</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>-0.05349178068878718</v>
+      </c>
+      <c r="E1586" t="n">
+        <v>44.03555330569336</v>
+      </c>
+      <c r="F1586" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1586" t="inlineStr"/>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="2" t="n">
+        <v>45352.74976851852</v>
+      </c>
+      <c r="B1587" t="n">
+        <v>199.26</v>
+      </c>
+      <c r="C1587" t="n">
+        <v>-0.0743850696296704</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>-0.05767043847696383</v>
+      </c>
+      <c r="E1587" t="n">
+        <v>42.59387604666706</v>
+      </c>
+      <c r="F1587" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1587" t="inlineStr"/>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="2" t="n">
+        <v>45352.75047453704</v>
+      </c>
+      <c r="B1588" t="n">
+        <v>199.24</v>
+      </c>
+      <c r="C1588" t="n">
+        <v>-0.08423680074494655</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>-0.06298371093056038</v>
+      </c>
+      <c r="E1588" t="n">
+        <v>42.09910882311605</v>
+      </c>
+      <c r="F1588" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1588" t="inlineStr"/>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="2" t="n">
+        <v>45352.75118055556</v>
+      </c>
+      <c r="B1589" t="n">
+        <v>199.66</v>
+      </c>
+      <c r="C1589" t="n">
+        <v>-0.05749115645355118</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>-0.06188520003515854</v>
+      </c>
+      <c r="E1589" t="n">
+        <v>54.14512079973117</v>
+      </c>
+      <c r="F1589" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1589" t="inlineStr"/>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="2" t="n">
+        <v>45352.75188657407</v>
+      </c>
+      <c r="B1590" t="n">
+        <v>199.68</v>
+      </c>
+      <c r="C1590" t="n">
+        <v>-0.03428598036825292</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>-0.05636535610177743</v>
+      </c>
+      <c r="E1590" t="n">
+        <v>54.62918174311285</v>
+      </c>
+      <c r="F1590" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1590" t="inlineStr"/>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="2" t="n">
+        <v>45352.75259259259</v>
+      </c>
+      <c r="B1591" t="n">
+        <v>199.58</v>
+      </c>
+      <c r="C1591" t="n">
+        <v>-0.02369177140832335</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>-0.04983063916308662</v>
+      </c>
+      <c r="E1591" t="n">
+        <v>51.69096507920943</v>
+      </c>
+      <c r="F1591" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1591" t="inlineStr"/>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="2" t="n">
+        <v>45352.75329861111</v>
+      </c>
+      <c r="B1592" t="n">
+        <v>199.87</v>
+      </c>
+      <c r="C1592" t="n">
+        <v>0.008012429587722636</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>-0.03826202541292477</v>
+      </c>
+      <c r="E1592" t="n">
+        <v>58.63860060482398</v>
+      </c>
+      <c r="F1592" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1592" t="inlineStr"/>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="2" t="n">
+        <v>45352.75400462963</v>
+      </c>
+      <c r="B1593" t="n">
+        <v>199.73</v>
+      </c>
+      <c r="C1593" t="n">
+        <v>0.02159250239557764</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>-0.02629111985122429</v>
+      </c>
+      <c r="E1593" t="n">
+        <v>54.55924348450568</v>
+      </c>
+      <c r="F1593" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1593" t="inlineStr"/>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="2" t="n">
+        <v>45352.75471064815</v>
+      </c>
+      <c r="B1594" t="n">
+        <v>200</v>
+      </c>
+      <c r="C1594" t="n">
+        <v>0.05352455371348697</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>-0.01032798513828204</v>
+      </c>
+      <c r="E1594" t="n">
+        <v>60.29595828365734</v>
+      </c>
+      <c r="F1594" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1594" t="inlineStr"/>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="2" t="n">
+        <v>45352.75541666667</v>
+      </c>
+      <c r="B1595" t="n">
+        <v>200.04</v>
+      </c>
+      <c r="C1595" t="n">
+        <v>0.08112345940457999</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>0.00796230377029037</v>
+      </c>
+      <c r="E1595" t="n">
+        <v>61.07988016287241</v>
+      </c>
+      <c r="F1595" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1595" t="inlineStr"/>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="2" t="n">
+        <v>45352.75614583334</v>
+      </c>
+      <c r="B1596" t="n">
+        <v>200.05</v>
+      </c>
+      <c r="C1596" t="n">
+        <v>0.1026197705938614</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>0.02689379713500458</v>
+      </c>
+      <c r="E1596" t="n">
+        <v>61.28567498852361</v>
+      </c>
+      <c r="F1596" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1596" t="inlineStr"/>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="2" t="n">
+        <v>45352.75685185185</v>
+      </c>
+      <c r="B1597" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="C1597" t="n">
+        <v>0.106326341803765</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>0.04278030606875666</v>
+      </c>
+      <c r="E1597" t="n">
+        <v>56.46287539534054</v>
+      </c>
+      <c r="F1597" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1597" t="inlineStr"/>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="2" t="n">
+        <v>45352.75758101852</v>
+      </c>
+      <c r="B1598" t="n">
+        <v>200.01</v>
+      </c>
+      <c r="C1598" t="n">
+        <v>0.1167935831584543</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>0.0575829614866962</v>
+      </c>
+      <c r="E1598" t="n">
+        <v>59.01029863021501</v>
+      </c>
+      <c r="F1598" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1598" t="inlineStr"/>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="2" t="n">
+        <v>45352.75828703704</v>
+      </c>
+      <c r="B1599" t="n">
+        <v>200.04</v>
+      </c>
+      <c r="C1599" t="n">
+        <v>0.1260565946681709</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>0.07127768812299114</v>
+      </c>
+      <c r="E1599" t="n">
+        <v>59.70281387309899</v>
+      </c>
+      <c r="F1599" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1599" t="inlineStr"/>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="2" t="n">
+        <v>45352.75899305556</v>
+      </c>
+      <c r="B1600" t="n">
+        <v>199.89</v>
+      </c>
+      <c r="C1600" t="n">
+        <v>0.1199115855128809</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>0.0810044676009691</v>
+      </c>
+      <c r="E1600" t="n">
+        <v>54.72440755554702</v>
+      </c>
+      <c r="F1600" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1600" t="inlineStr"/>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="2" t="n">
+        <v>45352.75969907407</v>
+      </c>
+      <c r="B1601" t="n">
+        <v>199.99</v>
+      </c>
+      <c r="C1601" t="n">
+        <v>0.1217078138326713</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>0.08914513684730954</v>
+      </c>
+      <c r="E1601" t="n">
+        <v>57.28182516802119</v>
+      </c>
+      <c r="F1601" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1601" t="inlineStr"/>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="2" t="n">
+        <v>45352.76040509259</v>
+      </c>
+      <c r="B1602" t="n">
+        <v>199.94</v>
+      </c>
+      <c r="C1602" t="n">
+        <v>0.1177395276007758</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>0.09486401499800279</v>
+      </c>
+      <c r="E1602" t="n">
+        <v>55.59100763112932</v>
+      </c>
+      <c r="F1602" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1602" t="inlineStr"/>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="2" t="n">
+        <v>45352.76111111111</v>
+      </c>
+      <c r="B1603" t="n">
+        <v>199.91</v>
+      </c>
+      <c r="C1603" t="n">
+        <v>0.1108955480447662</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>0.09807032160735547</v>
+      </c>
+      <c r="E1603" t="n">
+        <v>54.55057218340185</v>
+      </c>
+      <c r="F1603" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1603" t="inlineStr"/>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="2" t="n">
+        <v>45352.76181712963</v>
+      </c>
+      <c r="B1604" t="n">
+        <v>199.74</v>
+      </c>
+      <c r="C1604" t="n">
+        <v>0.09070843530946604</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>0.0965979443477776</v>
+      </c>
+      <c r="E1604" t="n">
+        <v>48.95875101036802</v>
+      </c>
+      <c r="F1604" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1604" t="inlineStr"/>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="2" t="n">
+        <v>45352.76252314815</v>
+      </c>
+      <c r="B1605" t="n">
+        <v>200.15</v>
+      </c>
+      <c r="C1605" t="n">
+        <v>0.1065651596871078</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>0.09859138741564365</v>
+      </c>
+      <c r="E1605" t="n">
+        <v>59.69070466903283</v>
+      </c>
+      <c r="F1605" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1605" t="inlineStr"/>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="2" t="n">
+        <v>45352.76322916667</v>
+      </c>
+      <c r="B1606" t="n">
+        <v>200.25</v>
+      </c>
+      <c r="C1606" t="n">
+        <v>0.1257513094452634</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>0.1040233718215676</v>
+      </c>
+      <c r="E1606" t="n">
+        <v>61.80038801156903</v>
+      </c>
+      <c r="F1606" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1606" t="inlineStr"/>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="2" t="n">
+        <v>45352.76394675926</v>
+      </c>
+      <c r="B1607" t="n">
+        <v>200.34</v>
+      </c>
+      <c r="C1607" t="n">
+        <v>0.1465296169828889</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>0.1125246208538319</v>
+      </c>
+      <c r="E1607" t="n">
+        <v>63.64458927818891</v>
+      </c>
+      <c r="F1607" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1607" t="inlineStr"/>
+    </row>
+    <row r="1608">
+      <c r="A1608" s="2" t="n">
+        <v>45352.76466435185</v>
+      </c>
+      <c r="B1608" t="n">
+        <v>200.55</v>
+      </c>
+      <c r="C1608" t="n">
+        <v>0.1778912013273555</v>
+      </c>
+      <c r="D1608" t="n">
+        <v>0.1255979369485366</v>
+      </c>
+      <c r="E1608" t="n">
+        <v>67.57784926129594</v>
+      </c>
+      <c r="F1608" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1608" t="inlineStr"/>
+    </row>
+    <row r="1609">
+      <c r="A1609" s="2" t="n">
+        <v>45352.76537037037</v>
+      </c>
+      <c r="B1609" t="n">
+        <v>200.65</v>
+      </c>
+      <c r="C1609" t="n">
+        <v>0.2084122010123224</v>
+      </c>
+      <c r="D1609" t="n">
+        <v>0.1421607897612938</v>
+      </c>
+      <c r="E1609" t="n">
+        <v>69.28212609318706</v>
+      </c>
+      <c r="F1609" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1609" t="inlineStr"/>
+    </row>
+    <row r="1610">
+      <c r="A1610" s="2" t="n">
+        <v>45352.76607638889</v>
+      </c>
+      <c r="B1610" t="n">
+        <v>200.72</v>
+      </c>
+      <c r="C1610" t="n">
+        <v>0.2355336429192221</v>
+      </c>
+      <c r="D1610" t="n">
+        <v>0.1608353603928794</v>
+      </c>
+      <c r="E1610" t="n">
+        <v>70.45295930547964</v>
+      </c>
+      <c r="F1610" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1610" t="inlineStr"/>
+    </row>
+    <row r="1611">
+      <c r="A1611" s="2" t="n">
+        <v>45352.76678240741</v>
+      </c>
+      <c r="B1611" t="n">
+        <v>200.56</v>
+      </c>
+      <c r="C1611" t="n">
+        <v>0.241334959023817</v>
+      </c>
+      <c r="D1611" t="n">
+        <v>0.176935280119067</v>
+      </c>
+      <c r="E1611" t="n">
+        <v>64.40982018065517</v>
+      </c>
+      <c r="F1611" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1611" t="inlineStr"/>
+    </row>
+    <row r="1612">
+      <c r="A1612" s="2" t="n">
+        <v>45352.76748842592</v>
+      </c>
+      <c r="B1612" t="n">
+        <v>200.63</v>
+      </c>
+      <c r="C1612" t="n">
+        <v>0.2487139393448103</v>
+      </c>
+      <c r="D1612" t="n">
+        <v>0.1912910119642156</v>
+      </c>
+      <c r="E1612" t="n">
+        <v>65.79227297712885</v>
+      </c>
+      <c r="F1612" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1612" t="inlineStr"/>
+    </row>
+    <row r="1613">
+      <c r="A1613" s="2" t="n">
+        <v>45352.76820601852</v>
+      </c>
+      <c r="B1613" t="n">
+        <v>200.79</v>
+      </c>
+      <c r="C1613" t="n">
+        <v>0.2644243776094584</v>
+      </c>
+      <c r="D1613" t="n">
+        <v>0.2059176850932642</v>
+      </c>
+      <c r="E1613" t="n">
+        <v>68.777607066012</v>
+      </c>
+      <c r="F1613" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1613" t="inlineStr"/>
+    </row>
+    <row r="1614">
+      <c r="A1614" s="2" t="n">
+        <v>45352.76891203703</v>
+      </c>
+      <c r="B1614" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="C1614" t="n">
+        <v>0.2824946710919392</v>
+      </c>
+      <c r="D1614" t="n">
+        <v>0.2212330822929992</v>
+      </c>
+      <c r="E1614" t="n">
+        <v>70.67256752247124</v>
+      </c>
+      <c r="F1614" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1614" t="inlineStr"/>
+    </row>
+    <row r="1615">
+      <c r="A1615" s="2" t="n">
+        <v>45352.76961805556</v>
+      </c>
+      <c r="B1615" t="n">
+        <v>200.91</v>
+      </c>
+      <c r="C1615" t="n">
+        <v>0.2942307167423905</v>
+      </c>
+      <c r="D1615" t="n">
+        <v>0.2358326091828775</v>
+      </c>
+      <c r="E1615" t="n">
+        <v>70.84579911852015</v>
+      </c>
+      <c r="F1615" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1615" t="inlineStr"/>
+    </row>
+    <row r="1616">
+      <c r="A1616" s="2" t="n">
+        <v>45352.77032407407</v>
+      </c>
+      <c r="B1616" t="n">
+        <v>200.78</v>
+      </c>
+      <c r="C1616" t="n">
+        <v>0.2897021973319056</v>
+      </c>
+      <c r="D1616" t="n">
+        <v>0.2466065268126831</v>
+      </c>
+      <c r="E1616" t="n">
+        <v>65.43465713040615</v>
+      </c>
+      <c r="F1616" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1616" t="inlineStr"/>
+    </row>
+    <row r="1617">
+      <c r="A1617" s="2" t="n">
+        <v>45352.77103009259</v>
+      </c>
+      <c r="B1617" t="n">
+        <v>200.83</v>
+      </c>
+      <c r="C1617" t="n">
+        <v>0.2868413664851346</v>
+      </c>
+      <c r="D1617" t="n">
+        <v>0.2546534947471734</v>
+      </c>
+      <c r="E1617" t="n">
+        <v>66.49464379460017</v>
+      </c>
+      <c r="F1617" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1617" t="inlineStr"/>
+    </row>
+    <row r="1618">
+      <c r="A1618" s="2" t="n">
+        <v>45352.77173611111</v>
+      </c>
+      <c r="B1618" t="n">
+        <v>200.87</v>
+      </c>
+      <c r="C1618" t="n">
+        <v>0.284522010505583</v>
+      </c>
+      <c r="D1618" t="n">
+        <v>0.2606271978988554</v>
+      </c>
+      <c r="E1618" t="n">
+        <v>67.35707269288622</v>
+      </c>
+      <c r="F1618" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1618" t="inlineStr"/>
+    </row>
+    <row r="1619">
+      <c r="A1619" s="2" t="n">
+        <v>45352.77244212963</v>
+      </c>
+      <c r="B1619" t="n">
+        <v>200.95</v>
+      </c>
+      <c r="C1619" t="n">
+        <v>0.2858442015700291</v>
+      </c>
+      <c r="D1619" t="n">
+        <v>0.2656705986330901</v>
+      </c>
+      <c r="E1619" t="n">
+        <v>69.07173760690912</v>
+      </c>
+      <c r="F1619" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1619" t="inlineStr"/>
+    </row>
+    <row r="1620">
+      <c r="A1620" s="2" t="n">
+        <v>45352.77314814815</v>
+      </c>
+      <c r="B1620" t="n">
+        <v>201.05</v>
+      </c>
+      <c r="C1620" t="n">
+        <v>0.2915998304487744</v>
+      </c>
+      <c r="D1620" t="n">
+        <v>0.270856444996227</v>
+      </c>
+      <c r="E1620" t="n">
+        <v>71.11426672505499</v>
+      </c>
+      <c r="F1620" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1620" t="inlineStr"/>
+    </row>
+    <row r="1621">
+      <c r="A1621" s="2" t="n">
+        <v>45352.77385416667</v>
+      </c>
+      <c r="B1621" t="n">
+        <v>200.88</v>
+      </c>
+      <c r="C1621" t="n">
+        <v>0.2792248977418126</v>
+      </c>
+      <c r="D1621" t="n">
+        <v>0.2725301355453441</v>
+      </c>
+      <c r="E1621" t="n">
+        <v>63.44358354277491</v>
+      </c>
+      <c r="F1621" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1621" t="inlineStr"/>
+    </row>
+    <row r="1622">
+      <c r="A1622" s="2" t="n">
+        <v>45352.77456018519</v>
+      </c>
+      <c r="B1622" t="n">
+        <v>200.81</v>
+      </c>
+      <c r="C1622" t="n">
+        <v>0.2607633419430329</v>
+      </c>
+      <c r="D1622" t="n">
+        <v>0.2701767768248818</v>
+      </c>
+      <c r="E1622" t="n">
+        <v>60.54752391876502</v>
+      </c>
+      <c r="F1622" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1622" t="inlineStr"/>
+    </row>
+    <row r="1623">
+      <c r="A1623" s="2" t="n">
+        <v>45352.7752662037</v>
+      </c>
+      <c r="B1623" t="n">
+        <v>200.66</v>
+      </c>
+      <c r="C1623" t="n">
+        <v>0.2313616860671459</v>
+      </c>
+      <c r="D1623" t="n">
+        <v>0.2624137586733347</v>
+      </c>
+      <c r="E1623" t="n">
+        <v>54.77723207577426</v>
+      </c>
+      <c r="F1623" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1623" t="inlineStr"/>
+    </row>
+    <row r="1624">
+      <c r="A1624" s="2" t="n">
+        <v>45352.77597222223</v>
+      </c>
+      <c r="B1624" t="n">
+        <v>200.85</v>
+      </c>
+      <c r="C1624" t="n">
+        <v>0.2208462954399693</v>
+      </c>
+      <c r="D1624" t="n">
+        <v>0.2541002660266616</v>
+      </c>
+      <c r="E1624" t="n">
+        <v>59.97990508467382</v>
+      </c>
+      <c r="F1624" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1624" t="inlineStr"/>
+    </row>
+    <row r="1625">
+      <c r="A1625" s="2" t="n">
+        <v>45352.77668981482</v>
+      </c>
+      <c r="B1625" t="n">
+        <v>200.84</v>
+      </c>
+      <c r="C1625" t="n">
+        <v>0.2092932538324419</v>
+      </c>
+      <c r="D1625" t="n">
+        <v>0.2451388635878177</v>
+      </c>
+      <c r="E1625" t="n">
+        <v>59.59132235408477</v>
+      </c>
+      <c r="F1625" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1625" t="inlineStr"/>
+    </row>
+    <row r="1626">
+      <c r="A1626" s="2" t="n">
+        <v>45352.77739583333</v>
+      </c>
+      <c r="B1626" t="n">
+        <v>200.93</v>
+      </c>
+      <c r="C1626" t="n">
+        <v>0.205036104381179</v>
+      </c>
+      <c r="D1626" t="n">
+        <v>0.23711831174649</v>
+      </c>
+      <c r="E1626" t="n">
+        <v>61.97875562029861</v>
+      </c>
+      <c r="F1626" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1626" t="inlineStr"/>
+    </row>
+    <row r="1627">
+      <c r="A1627" s="2" t="n">
+        <v>45352.77811342593</v>
+      </c>
+      <c r="B1627" t="n">
+        <v>200.81</v>
+      </c>
+      <c r="C1627" t="n">
+        <v>0.1897914875246727</v>
+      </c>
+      <c r="D1627" t="n">
+        <v>0.2276529469021265</v>
+      </c>
+      <c r="E1627" t="n">
+        <v>57.13191433352317</v>
+      </c>
+      <c r="F1627" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1627" t="inlineStr"/>
+    </row>
+    <row r="1628">
+      <c r="A1628" s="2" t="n">
+        <v>45352.77881944444</v>
+      </c>
+      <c r="B1628" t="n">
+        <v>200.67</v>
+      </c>
+      <c r="C1628" t="n">
+        <v>0.1645167422664429</v>
+      </c>
+      <c r="D1628" t="n">
+        <v>0.2150257059749898</v>
+      </c>
+      <c r="E1628" t="n">
+        <v>52.02070516452549</v>
+      </c>
+      <c r="F1628" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1628" t="inlineStr"/>
+    </row>
+    <row r="1629">
+      <c r="A1629" s="2" t="n">
+        <v>45352.77953703704</v>
+      </c>
+      <c r="B1629" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="C1629" t="n">
+        <v>0.1532101271237707</v>
+      </c>
+      <c r="D1629" t="n">
+        <v>0.202662590204746</v>
+      </c>
+      <c r="E1629" t="n">
+        <v>55.96061366984345</v>
+      </c>
+      <c r="F1629" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1629" t="inlineStr"/>
+    </row>
+    <row r="1630">
+      <c r="A1630" s="2" t="n">
+        <v>45352.78024305555</v>
+      </c>
+      <c r="B1630" t="n">
+        <v>200.83</v>
+      </c>
+      <c r="C1630" t="n">
+        <v>0.1449988460049099</v>
+      </c>
+      <c r="D1630" t="n">
+        <v>0.1911298413647788</v>
+      </c>
+      <c r="E1630" t="n">
+        <v>56.84138339280879</v>
+      </c>
+      <c r="F1630" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1630" t="inlineStr"/>
+    </row>
+    <row r="1631">
+      <c r="A1631" s="2" t="n">
+        <v>45352.78094907408</v>
+      </c>
+      <c r="B1631" t="n">
+        <v>200.99</v>
+      </c>
+      <c r="C1631" t="n">
+        <v>0.1496766303590391</v>
+      </c>
+      <c r="D1631" t="n">
+        <v>0.1828391991636309</v>
+      </c>
+      <c r="E1631" t="n">
+        <v>61.28818784190781</v>
+      </c>
+      <c r="F1631" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1631" t="inlineStr"/>
+    </row>
+    <row r="1632">
+      <c r="A1632" s="2" t="n">
+        <v>45352.78166666667</v>
+      </c>
+      <c r="B1632" t="n">
+        <v>200.79</v>
+      </c>
+      <c r="C1632" t="n">
+        <v>0.1356814285810799</v>
+      </c>
+      <c r="D1632" t="n">
+        <v>0.1734076450471207</v>
+      </c>
+      <c r="E1632" t="n">
+        <v>53.82296417484594</v>
+      </c>
+      <c r="F1632" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1632" t="inlineStr"/>
+    </row>
+    <row r="1633">
+      <c r="A1633" s="2" t="n">
+        <v>45352.78238425926</v>
+      </c>
+      <c r="B1633" t="n">
+        <v>200.89</v>
+      </c>
+      <c r="C1633" t="n">
+        <v>0.1311475077740738</v>
+      </c>
+      <c r="D1633" t="n">
+        <v>0.1649556175925113</v>
+      </c>
+      <c r="E1633" t="n">
+        <v>56.66518414741999</v>
+      </c>
+      <c r="F1633" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1633" t="inlineStr"/>
+    </row>
+    <row r="1634">
+      <c r="A1634" s="2" t="n">
+        <v>45352.78309027778</v>
+      </c>
+      <c r="B1634" t="n">
+        <v>200.87</v>
+      </c>
+      <c r="C1634" t="n">
+        <v>0.1245052905289583</v>
+      </c>
+      <c r="D1634" t="n">
+        <v>0.1568655521798007</v>
+      </c>
+      <c r="E1634" t="n">
+        <v>55.92380051740582</v>
+      </c>
+      <c r="F1634" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1634" t="inlineStr"/>
+    </row>
+    <row r="1635">
+      <c r="A1635" s="2" t="n">
+        <v>45352.78379629629</v>
+      </c>
+      <c r="B1635" t="n">
+        <v>200.91</v>
+      </c>
+      <c r="C1635" t="n">
+        <v>0.1210732936499994</v>
+      </c>
+      <c r="D1635" t="n">
+        <v>0.1497071004738405</v>
+      </c>
+      <c r="E1635" t="n">
+        <v>57.1318266933196</v>
+      </c>
+      <c r="F1635" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1635" t="inlineStr"/>
+    </row>
+    <row r="1636">
+      <c r="A1636" s="2" t="n">
+        <v>45352.78453703703</v>
+      </c>
+      <c r="B1636" t="n">
+        <v>200.78</v>
+      </c>
+      <c r="C1636" t="n">
+        <v>0.1066342842018457</v>
+      </c>
+      <c r="D1636" t="n">
+        <v>0.1410925372194415</v>
+      </c>
+      <c r="E1636" t="n">
+        <v>52.13105777736454</v>
+      </c>
+      <c r="F1636" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1636" t="inlineStr"/>
+    </row>
+    <row r="1637">
+      <c r="A1637" s="2" t="n">
+        <v>45352.78524305556</v>
+      </c>
+      <c r="B1637" t="n">
+        <v>200.8</v>
+      </c>
+      <c r="C1637" t="n">
+        <v>0.09570190603926676</v>
+      </c>
+      <c r="D1637" t="n">
+        <v>0.1320144109834066</v>
+      </c>
+      <c r="E1637" t="n">
+        <v>52.81533312858429</v>
+      </c>
+      <c r="F1637" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1637" t="inlineStr"/>
+    </row>
+    <row r="1638">
+      <c r="A1638" s="2" t="n">
+        <v>45352.78594907407</v>
+      </c>
+      <c r="B1638" t="n">
+        <v>200.85</v>
+      </c>
+      <c r="C1638" t="n">
+        <v>0.09003463646988052</v>
+      </c>
+      <c r="D1638" t="n">
+        <v>0.1236184560807014</v>
+      </c>
+      <c r="E1638" t="n">
+        <v>54.56397970645828</v>
+      </c>
+      <c r="F1638" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1638" t="inlineStr"/>
+    </row>
+    <row r="1639">
+      <c r="A1639" s="2" t="n">
+        <v>45352.78665509259</v>
+      </c>
+      <c r="B1639" t="n">
+        <v>200.59</v>
+      </c>
+      <c r="C1639" t="n">
+        <v>0.06382769151983325</v>
+      </c>
+      <c r="D1639" t="n">
+        <v>0.1116603031685278</v>
+      </c>
+      <c r="E1639" t="n">
+        <v>45.18628994946746</v>
+      </c>
+      <c r="F1639" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1639" t="inlineStr"/>
+    </row>
+    <row r="1640">
+      <c r="A1640" s="2" t="n">
+        <v>45352.78736111111</v>
+      </c>
+      <c r="B1640" t="n">
+        <v>200.88</v>
+      </c>
+      <c r="C1640" t="n">
+        <v>0.06570170682655885</v>
+      </c>
+      <c r="D1640" t="n">
+        <v>0.102468583900134</v>
+      </c>
+      <c r="E1640" t="n">
+        <v>54.56583379368558</v>
+      </c>
+      <c r="F1640" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1640" t="inlineStr"/>
+    </row>
+    <row r="1641">
+      <c r="A1641" s="2" t="n">
+        <v>45352.78806712963</v>
+      </c>
+      <c r="B1641" t="n">
+        <v>200.94</v>
+      </c>
+      <c r="C1641" t="n">
+        <v>0.07120753982380279</v>
+      </c>
+      <c r="D1641" t="n">
+        <v>0.09621637508486776</v>
+      </c>
+      <c r="E1641" t="n">
+        <v>56.2344736452548</v>
+      </c>
+      <c r="F1641" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1641" t="inlineStr"/>
+    </row>
+    <row r="1642">
+      <c r="A1642" s="2" t="n">
+        <v>45352.78877314815</v>
+      </c>
+      <c r="B1642" t="n">
+        <v>200.72</v>
+      </c>
+      <c r="C1642" t="n">
+        <v>0.05715988715985532</v>
+      </c>
+      <c r="D1642" t="n">
+        <v>0.08840507749986527</v>
+      </c>
+      <c r="E1642" t="n">
+        <v>49.11210122930608</v>
+      </c>
+      <c r="F1642" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1642" t="inlineStr"/>
+    </row>
+    <row r="1643">
+      <c r="A1643" s="2" t="n">
+        <v>45352.78947916667</v>
+      </c>
+      <c r="B1643" t="n">
+        <v>200.69</v>
+      </c>
+      <c r="C1643" t="n">
+        <v>0.04310933436437381</v>
+      </c>
+      <c r="D1643" t="n">
+        <v>0.07934592887276698</v>
+      </c>
+      <c r="E1643" t="n">
+        <v>48.21531220481135</v>
+      </c>
+      <c r="F1643" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1643" t="inlineStr"/>
+    </row>
+    <row r="1644">
+      <c r="A1644" s="2" t="n">
+        <v>45352.79018518519</v>
+      </c>
+      <c r="B1644" t="n">
+        <v>200.79</v>
+      </c>
+      <c r="C1644" t="n">
+        <v>0.03958700001612669</v>
+      </c>
+      <c r="D1644" t="n">
+        <v>0.07139414310143893</v>
+      </c>
+      <c r="E1644" t="n">
+        <v>51.40092647167304</v>
+      </c>
+      <c r="F1644" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1644" t="inlineStr"/>
+    </row>
+    <row r="1645">
+      <c r="A1645" s="2" t="n">
+        <v>45352.7908912037</v>
+      </c>
+      <c r="B1645" t="n">
+        <v>200.69</v>
+      </c>
+      <c r="C1645" t="n">
+        <v>0.02839899447246808</v>
+      </c>
+      <c r="D1645" t="n">
+        <v>0.06279511337564476</v>
+      </c>
+      <c r="E1645" t="n">
+        <v>48.20726415427377</v>
+      </c>
+      <c r="F1645" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1645" t="inlineStr"/>
+    </row>
+    <row r="1646">
+      <c r="A1646" s="2" t="n">
+        <v>45352.79159722223</v>
+      </c>
+      <c r="B1646" t="n">
+        <v>200.75</v>
+      </c>
+      <c r="C1646" t="n">
+        <v>0.02409615258528675</v>
+      </c>
+      <c r="D1646" t="n">
+        <v>0.05505532121757317</v>
+      </c>
+      <c r="E1646" t="n">
+        <v>50.20633450633134</v>
+      </c>
+      <c r="F1646" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1646" t="inlineStr"/>
+    </row>
+    <row r="1647">
+      <c r="A1647" s="2" t="n">
+        <v>45352.79232638889</v>
+      </c>
+      <c r="B1647" t="n">
+        <v>200.88</v>
+      </c>
+      <c r="C1647" t="n">
+        <v>0.03082075050747335</v>
+      </c>
+      <c r="D1647" t="n">
+        <v>0.0502084070755532</v>
+      </c>
+      <c r="E1647" t="n">
+        <v>54.32028791681315</v>
+      </c>
+      <c r="F1647" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1647" t="inlineStr"/>
+    </row>
+    <row r="1648">
+      <c r="A1648" s="2" t="n">
+        <v>45352.7930324074</v>
+      </c>
+      <c r="B1648" t="n">
+        <v>200.91</v>
+      </c>
+      <c r="C1648" t="n">
+        <v>0.03813123890225256</v>
+      </c>
+      <c r="D1648" t="n">
+        <v>0.04779297344089307</v>
+      </c>
+      <c r="E1648" t="n">
+        <v>55.23934874088413</v>
+      </c>
+      <c r="F1648" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1648" t="inlineStr"/>
+    </row>
+    <row r="1649">
+      <c r="A1649" s="2" t="n">
+        <v>45352.79373842593</v>
+      </c>
+      <c r="B1649" t="n">
+        <v>200.79</v>
+      </c>
+      <c r="C1649" t="n">
+        <v>0.03385163591920559</v>
+      </c>
+      <c r="D1649" t="n">
+        <v>0.04500470593655558</v>
+      </c>
+      <c r="E1649" t="n">
+        <v>50.83363069061168</v>
+      </c>
+      <c r="F1649" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1649" t="inlineStr"/>
+    </row>
+    <row r="1650">
+      <c r="A1650" s="2" t="n">
+        <v>45352.79444444444</v>
+      </c>
+      <c r="B1650" t="n">
+        <v>200.82</v>
+      </c>
+      <c r="C1650" t="n">
+        <v>0.03250605938353601</v>
+      </c>
+      <c r="D1650" t="n">
+        <v>0.04250497662595167</v>
+      </c>
+      <c r="E1650" t="n">
+        <v>51.86718686943487</v>
+      </c>
+      <c r="F1650" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1650" t="inlineStr"/>
+    </row>
+    <row r="1651">
+      <c r="A1651" s="2" t="n">
+        <v>45352.79517361111</v>
+      </c>
+      <c r="B1651" t="n">
+        <v>200.89</v>
+      </c>
+      <c r="C1651" t="n">
+        <v>0.03666543891390006</v>
+      </c>
+      <c r="D1651" t="n">
+        <v>0.04133706908354134</v>
+      </c>
+      <c r="E1651" t="n">
+        <v>54.28216431837735</v>
+      </c>
+      <c r="F1651" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1651" t="inlineStr"/>
+    </row>
+    <row r="1652">
+      <c r="A1652" s="2" t="n">
+        <v>45352.79587962963</v>
+      </c>
+      <c r="B1652" t="n">
+        <v>200.9</v>
+      </c>
+      <c r="C1652" t="n">
+        <v>0.04030409308828098</v>
+      </c>
+      <c r="D1652" t="n">
+        <v>0.04113047388448927</v>
+      </c>
+      <c r="E1652" t="n">
+        <v>54.63235510288023</v>
+      </c>
+      <c r="F1652" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1652" t="inlineStr"/>
+    </row>
+    <row r="1653">
+      <c r="A1653" s="2" t="n">
+        <v>45352.79658564815</v>
+      </c>
+      <c r="B1653" t="n">
+        <v>201.02</v>
+      </c>
+      <c r="C1653" t="n">
+        <v>0.05226823418686877</v>
+      </c>
+      <c r="D1653" t="n">
+        <v>0.04335802594496517</v>
+      </c>
+      <c r="E1653" t="n">
+        <v>58.71872847790057</v>
+      </c>
+      <c r="F1653" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1653" t="inlineStr"/>
+    </row>
+    <row r="1654">
+      <c r="A1654" s="2" t="n">
+        <v>45352.79729166667</v>
+      </c>
+      <c r="B1654" t="n">
+        <v>201.24</v>
+      </c>
+      <c r="C1654" t="n">
+        <v>0.07859605716510032</v>
+      </c>
+      <c r="D1654" t="n">
+        <v>0.0504056321889922</v>
+      </c>
+      <c r="E1654" t="n">
+        <v>64.9515750323614</v>
+      </c>
+      <c r="F1654" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1654" t="inlineStr"/>
+    </row>
+    <row r="1655">
+      <c r="A1655" s="2" t="n">
+        <v>45352.79799768519</v>
+      </c>
+      <c r="B1655" t="n">
+        <v>201.33</v>
+      </c>
+      <c r="C1655" t="n">
+        <v>0.1055070745165381</v>
+      </c>
+      <c r="D1655" t="n">
+        <v>0.06142592065450138</v>
+      </c>
+      <c r="E1655" t="n">
+        <v>67.13751524341073</v>
+      </c>
+      <c r="F1655" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1655" t="inlineStr"/>
+    </row>
+    <row r="1656">
+      <c r="A1656" s="2" t="n">
+        <v>45352.7987037037</v>
+      </c>
+      <c r="B1656" t="n">
+        <v>201.65</v>
+      </c>
+      <c r="C1656" t="n">
+        <v>0.1509159106236098</v>
+      </c>
+      <c r="D1656" t="n">
+        <v>0.07932391864832306</v>
+      </c>
+      <c r="E1656" t="n">
+        <v>73.47264923979407</v>
+      </c>
+      <c r="F1656" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1656" t="inlineStr"/>
+    </row>
+    <row r="1657">
+      <c r="A1657" s="2" t="n">
+        <v>45352.79940972223</v>
+      </c>
+      <c r="B1657" t="n">
+        <v>201.78</v>
+      </c>
+      <c r="C1657" t="n">
+        <v>0.1951431650023778</v>
+      </c>
+      <c r="D1657" t="n">
+        <v>0.102487767919134</v>
+      </c>
+      <c r="E1657" t="n">
+        <v>75.53594685592839</v>
+      </c>
+      <c r="F1657" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1657" t="inlineStr"/>
+    </row>
+    <row r="1658">
+      <c r="A1658" s="2" t="n">
+        <v>45352.80011574074</v>
+      </c>
+      <c r="B1658" t="n">
+        <v>201.91</v>
+      </c>
+      <c r="C1658" t="n">
+        <v>0.2379406644159019</v>
+      </c>
+      <c r="D1658" t="n">
+        <v>0.1295783472184876</v>
+      </c>
+      <c r="E1658" t="n">
+        <v>77.4267518299025</v>
+      </c>
+      <c r="F1658" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1658" t="inlineStr"/>
+    </row>
+    <row r="1659">
+      <c r="A1659" s="2" t="n">
+        <v>45352.80082175926</v>
+      </c>
+      <c r="B1659" t="n">
+        <v>201.86</v>
+      </c>
+      <c r="C1659" t="n">
+        <v>0.2647712902878538</v>
+      </c>
+      <c r="D1659" t="n">
+        <v>0.1566169358323609</v>
+      </c>
+      <c r="E1659" t="n">
+        <v>75.02495962822915</v>
+      </c>
+      <c r="F1659" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1659" t="inlineStr"/>
+    </row>
+    <row r="1660">
+      <c r="A1660" s="2" t="n">
+        <v>45352.80152777778</v>
+      </c>
+      <c r="B1660" t="n">
+        <v>201.95</v>
+      </c>
+      <c r="C1660" t="n">
+        <v>0.2899545864520974</v>
+      </c>
+      <c r="D1660" t="n">
+        <v>0.1832844659563082</v>
+      </c>
+      <c r="E1660" t="n">
+        <v>76.44156232583043</v>
+      </c>
+      <c r="F1660" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1660" t="inlineStr"/>
+    </row>
+    <row r="1661">
+      <c r="A1661" s="2" t="n">
+        <v>45352.8022337963</v>
+      </c>
+      <c r="B1661" t="n">
+        <v>202.08</v>
+      </c>
+      <c r="C1661" t="n">
+        <v>0.3167511337436792</v>
+      </c>
+      <c r="D1661" t="n">
+        <v>0.2099777995137824</v>
+      </c>
+      <c r="E1661" t="n">
+        <v>78.35164551582889</v>
+      </c>
+      <c r="F1661" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1661" t="inlineStr"/>
+    </row>
+    <row r="1662">
+      <c r="A1662" s="2" t="n">
+        <v>45352.80295138889</v>
+      </c>
+      <c r="B1662" t="n">
+        <v>202.11</v>
+      </c>
+      <c r="C1662" t="n">
+        <v>0.3365290424907244</v>
+      </c>
+      <c r="D1662" t="n">
+        <v>0.2352880481091708</v>
+      </c>
+      <c r="E1662" t="n">
+        <v>78.77923731860236</v>
+      </c>
+      <c r="F1662" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1662" t="inlineStr"/>
+    </row>
+    <row r="1663">
+      <c r="A1663" s="2" t="n">
+        <v>45352.80365740741</v>
+      </c>
+      <c r="B1663" t="n">
+        <v>201.93</v>
+      </c>
+      <c r="C1663" t="n">
+        <v>0.3338304918795245</v>
+      </c>
+      <c r="D1663" t="n">
+        <v>0.2549965368632415</v>
+      </c>
+      <c r="E1663" t="n">
+        <v>69.86289029636032</v>
+      </c>
+      <c r="F1663" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1663" t="inlineStr"/>
+    </row>
+    <row r="1664">
+      <c r="A1664" s="2" t="n">
+        <v>45352.80436342592</v>
+      </c>
+      <c r="B1664" t="n">
+        <v>201.8</v>
+      </c>
+      <c r="C1664" t="n">
+        <v>0.3175415363650416</v>
+      </c>
+      <c r="D1664" t="n">
+        <v>0.2675055367636016</v>
+      </c>
+      <c r="E1664" t="n">
+        <v>64.21044460383018</v>
+      </c>
+      <c r="F1664" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1664" t="inlineStr"/>
+    </row>
+    <row r="1665">
+      <c r="A1665" s="2" t="n">
+        <v>45352.80506944445</v>
+      </c>
+      <c r="B1665" t="n">
+        <v>201.93</v>
+      </c>
+      <c r="C1665" t="n">
+        <v>0.311531197584543</v>
+      </c>
+      <c r="D1665" t="n">
+        <v>0.2763106689277899</v>
+      </c>
+      <c r="E1665" t="n">
+        <v>67.07890467697825</v>
+      </c>
+      <c r="F1665" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1665" t="inlineStr"/>
+    </row>
+    <row r="1666">
+      <c r="A1666" s="2" t="n">
+        <v>45352.80578703704</v>
+      </c>
+      <c r="B1666" t="n">
+        <v>202.26</v>
+      </c>
+      <c r="C1666" t="n">
+        <v>0.3295968159464451</v>
+      </c>
+      <c r="D1666" t="n">
+        <v>0.2869678983315209</v>
+      </c>
+      <c r="E1666" t="n">
+        <v>72.99563467730403</v>
+      </c>
+      <c r="F1666" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1666" t="inlineStr"/>
+    </row>
+    <row r="1667">
+      <c r="A1667" s="2" t="n">
+        <v>45352.80649305556</v>
+      </c>
+      <c r="B1667" t="n">
+        <v>202.2</v>
+      </c>
+      <c r="C1667" t="n">
+        <v>0.3352083765895486</v>
+      </c>
+      <c r="D1667" t="n">
+        <v>0.2966159939831264</v>
+      </c>
+      <c r="E1667" t="n">
+        <v>70.51418230943585</v>
+      </c>
+      <c r="F1667" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1667" t="inlineStr"/>
+    </row>
+    <row r="1668">
+      <c r="A1668" s="2" t="n">
+        <v>45352.80719907407</v>
+      </c>
+      <c r="B1668" t="n">
+        <v>202.45</v>
+      </c>
+      <c r="C1668" t="n">
+        <v>0.3557278799243022</v>
+      </c>
+      <c r="D1668" t="n">
+        <v>0.3084383711713616</v>
+      </c>
+      <c r="E1668" t="n">
+        <v>74.41665461642458</v>
+      </c>
+      <c r="F1668" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1668" t="inlineStr"/>
+    </row>
+    <row r="1669">
+      <c r="A1669" s="2" t="n">
+        <v>45352.8079050926</v>
+      </c>
+      <c r="B1669" t="n">
+        <v>202.3</v>
+      </c>
+      <c r="C1669" t="n">
+        <v>0.355784722936761</v>
+      </c>
+      <c r="D1669" t="n">
+        <v>0.3179076415244415</v>
+      </c>
+      <c r="E1669" t="n">
+        <v>68.5539865914602</v>
+      </c>
+      <c r="F1669" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1669" t="inlineStr"/>
+    </row>
+    <row r="1670">
+      <c r="A1670" s="2" t="n">
+        <v>45352.80861111111</v>
+      </c>
+      <c r="B1670" t="n">
+        <v>202.4</v>
+      </c>
+      <c r="C1670" t="n">
+        <v>0.3597519392805566</v>
+      </c>
+      <c r="D1670" t="n">
+        <v>0.3262765010756645</v>
+      </c>
+      <c r="E1670" t="n">
+        <v>70.23739512141177</v>
+      </c>
+      <c r="F1670" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1670" t="inlineStr"/>
+    </row>
+    <row r="1671">
+      <c r="A1671" s="2" t="n">
+        <v>45352.80931712963</v>
+      </c>
+      <c r="B1671" t="n">
+        <v>202.37</v>
+      </c>
+      <c r="C1671" t="n">
+        <v>0.3563672576208035</v>
+      </c>
+      <c r="D1671" t="n">
+        <v>0.3322946523846924</v>
+      </c>
+      <c r="E1671" t="n">
+        <v>69.04326626080413</v>
+      </c>
+      <c r="F1671" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1671" t="inlineStr"/>
+    </row>
+    <row r="1672">
+      <c r="A1672" s="2" t="n">
+        <v>45352.8100462963</v>
+      </c>
+      <c r="B1672" t="n">
+        <v>202.32</v>
+      </c>
+      <c r="C1672" t="n">
+        <v>0.3456656721879483</v>
+      </c>
+      <c r="D1672" t="n">
+        <v>0.3349688563453436</v>
+      </c>
+      <c r="E1672" t="n">
+        <v>66.99878489075292</v>
+      </c>
+      <c r="F1672" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1672" t="inlineStr"/>
+    </row>
+    <row r="1673">
+      <c r="A1673" s="2" t="n">
+        <v>45352.81075231481</v>
+      </c>
+      <c r="B1673" t="n">
+        <v>202.63</v>
+      </c>
+      <c r="C1673" t="n">
+        <v>0.3580713739464159</v>
+      </c>
+      <c r="D1673" t="n">
+        <v>0.339589359865558</v>
+      </c>
+      <c r="E1673" t="n">
+        <v>72.4465061491567</v>
+      </c>
+      <c r="F1673" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1673" t="inlineStr"/>
+    </row>
+    <row r="1674">
+      <c r="A1674" s="2" t="n">
+        <v>45352.81145833333</v>
+      </c>
+      <c r="B1674" t="n">
+        <v>202.47</v>
+      </c>
+      <c r="C1674" t="n">
+        <v>0.3509468226295951</v>
+      </c>
+      <c r="D1674" t="n">
+        <v>0.3418608524183654</v>
+      </c>
+      <c r="E1674" t="n">
+        <v>66.35786570077444</v>
+      </c>
+      <c r="F1674" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1674" t="inlineStr"/>
+    </row>
+    <row r="1675">
+      <c r="A1675" s="2" t="n">
+        <v>45352.81216435185</v>
+      </c>
+      <c r="B1675" t="n">
+        <v>202.5</v>
+      </c>
+      <c r="C1675" t="n">
+        <v>0.3437586776078092</v>
+      </c>
+      <c r="D1675" t="n">
+        <v>0.3422404174562542</v>
+      </c>
+      <c r="E1675" t="n">
+        <v>66.91925498673336</v>
+      </c>
+      <c r="F1675" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1675" t="inlineStr"/>
+    </row>
+    <row r="1676">
+      <c r="A1676" s="2" t="n">
+        <v>45352.81287037037</v>
+      </c>
+      <c r="B1676" t="n">
+        <v>202.38</v>
+      </c>
+      <c r="C1676" t="n">
+        <v>0.3246368126750099</v>
+      </c>
+      <c r="D1676" t="n">
+        <v>0.3387196965000054</v>
+      </c>
+      <c r="E1676" t="n">
+        <v>62.43150110071407</v>
+      </c>
+      <c r="F1676" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1676" t="inlineStr"/>
+    </row>
+    <row r="1677">
+      <c r="A1677" s="2" t="n">
+        <v>45352.81358796296</v>
+      </c>
+      <c r="B1677" t="n">
+        <v>202.33</v>
+      </c>
+      <c r="C1677" t="n">
+        <v>0.3019671257598588</v>
+      </c>
+      <c r="D1677" t="n">
+        <v>0.3313691823519761</v>
+      </c>
+      <c r="E1677" t="n">
+        <v>60.60769304575074</v>
+      </c>
+      <c r="F1677" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1677" t="inlineStr"/>
+    </row>
+    <row r="1678">
+      <c r="A1678" s="2" t="n">
+        <v>45352.81429398148</v>
+      </c>
+      <c r="B1678" t="n">
+        <v>202.42</v>
+      </c>
+      <c r="C1678" t="n">
+        <v>0.2879442414159428</v>
+      </c>
+      <c r="D1678" t="n">
+        <v>0.3226841941647695</v>
+      </c>
+      <c r="E1678" t="n">
+        <v>62.71885606804744</v>
+      </c>
+      <c r="F1678" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1678" t="inlineStr"/>
+    </row>
+    <row r="1679">
+      <c r="A1679" s="2" t="n">
+        <v>45352.81501157407</v>
+      </c>
+      <c r="B1679" t="n">
+        <v>202.47</v>
+      </c>
+      <c r="C1679" t="n">
+        <v>0.2776648392500363</v>
+      </c>
+      <c r="D1679" t="n">
+        <v>0.3136803231818229</v>
+      </c>
+      <c r="E1679" t="n">
+        <v>63.87711320116029</v>
+      </c>
+      <c r="F1679" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1679" t="inlineStr"/>
+    </row>
+    <row r="1680">
+      <c r="A1680" s="2" t="n">
+        <v>45352.81572916666</v>
+      </c>
+      <c r="B1680" t="n">
+        <v>202.74</v>
+      </c>
+      <c r="C1680" t="n">
+        <v>0.2879853664504992</v>
+      </c>
+      <c r="D1680" t="n">
+        <v>0.3085413318355582</v>
+      </c>
+      <c r="E1680" t="n">
+        <v>69.40484382945391</v>
+      </c>
+      <c r="F1680" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1680" t="inlineStr"/>
+    </row>
+    <row r="1681">
+      <c r="A1681" s="2" t="n">
+        <v>45352.81643518519</v>
+      </c>
+      <c r="B1681" t="n">
+        <v>202.61</v>
+      </c>
+      <c r="C1681" t="n">
+        <v>0.2824189946964566</v>
+      </c>
+      <c r="D1681" t="n">
+        <v>0.3033168644077379</v>
+      </c>
+      <c r="E1681" t="n">
+        <v>64.30264335335511</v>
+      </c>
+      <c r="F1681" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1681" t="inlineStr"/>
+    </row>
+    <row r="1682">
+      <c r="A1682" s="2" t="n">
+        <v>45352.8171412037</v>
+      </c>
+      <c r="B1682" t="n">
+        <v>202.73</v>
+      </c>
+      <c r="C1682" t="n">
+        <v>0.284412076715995</v>
+      </c>
+      <c r="D1682" t="n">
+        <v>0.2995359068693893</v>
+      </c>
+      <c r="E1682" t="n">
+        <v>66.73369862226426</v>
+      </c>
+      <c r="F1682" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1682" t="inlineStr"/>
+    </row>
+    <row r="1683">
+      <c r="A1683" s="2" t="n">
+        <v>45352.81784722222</v>
+      </c>
+      <c r="B1683" t="n">
+        <v>202.86</v>
+      </c>
+      <c r="C1683" t="n">
+        <v>0.2931028153157058</v>
+      </c>
+      <c r="D1683" t="n">
+        <v>0.2982492885586526</v>
+      </c>
+      <c r="E1683" t="n">
+        <v>69.18223574318313</v>
+      </c>
+      <c r="F1683" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1683" t="inlineStr"/>
+    </row>
+    <row r="1684">
+      <c r="A1684" s="2" t="n">
+        <v>45352.81856481481</v>
+      </c>
+      <c r="B1684" t="n">
+        <v>202.88</v>
+      </c>
+      <c r="C1684" t="n">
+        <v>0.2981670371210328</v>
+      </c>
+      <c r="D1684" t="n">
+        <v>0.2982328382711287</v>
+      </c>
+      <c r="E1684" t="n">
+        <v>69.55352342640296</v>
+      </c>
+      <c r="F1684" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1684" t="inlineStr"/>
+    </row>
+    <row r="1685">
+      <c r="A1685" s="2" t="n">
+        <v>45352.81927083333</v>
+      </c>
+      <c r="B1685" t="n">
+        <v>202.88</v>
+      </c>
+      <c r="C1685" t="n">
+        <v>0.2987368173146763</v>
+      </c>
+      <c r="D1685" t="n">
+        <v>0.2983336340798382</v>
+      </c>
+      <c r="E1685" t="n">
+        <v>69.55352342640296</v>
+      </c>
+      <c r="F1685" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1685" t="inlineStr"/>
+    </row>
+    <row r="1686">
+      <c r="A1686" s="2" t="n">
+        <v>45352.81998842592</v>
+      </c>
+      <c r="B1686" t="n">
+        <v>202.84</v>
+      </c>
+      <c r="C1686" t="n">
+        <v>0.292587934932925</v>
+      </c>
+      <c r="D1686" t="n">
+        <v>0.2971844942504556</v>
+      </c>
+      <c r="E1686" t="n">
+        <v>67.66266981927959</v>
+      </c>
+      <c r="F1686" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1686" t="inlineStr"/>
+    </row>
+    <row r="1687">
+      <c r="A1687" s="2" t="n">
+        <v>45352.82070601852</v>
+      </c>
+      <c r="B1687" t="n">
+        <v>202.98</v>
+      </c>
+      <c r="C1687" t="n">
+        <v>0.2956041902186257</v>
+      </c>
+      <c r="D1687" t="n">
+        <v>0.2968684334440896</v>
+      </c>
+      <c r="E1687" t="n">
+        <v>70.66825725248337</v>
+      </c>
+      <c r="F1687" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1687" t="inlineStr"/>
+    </row>
+    <row r="1688">
+      <c r="A1688" s="2" t="n">
+        <v>45352.82141203704</v>
+      </c>
+      <c r="B1688" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1688" t="n">
+        <v>0.2961940860667482</v>
+      </c>
+      <c r="D1688" t="n">
+        <v>0.2967335639686214</v>
+      </c>
+      <c r="E1688" t="n">
+        <v>71.08176498143621</v>
+      </c>
+      <c r="F1688" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1688" t="inlineStr"/>
+    </row>
+    <row r="1689">
+      <c r="A1689" s="2" t="n">
+        <v>45352.82215277778</v>
+      </c>
+      <c r="B1689" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="C1689" t="n">
+        <v>0.285303616021082</v>
+      </c>
+      <c r="D1689" t="n">
+        <v>0.2944475743791135</v>
+      </c>
+      <c r="E1689" t="n">
+        <v>66.06663021789839</v>
+      </c>
+      <c r="F1689" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1689" t="inlineStr"/>
+    </row>
+    <row r="1690">
+      <c r="A1690" s="2" t="n">
+        <v>45352.82285879629</v>
+      </c>
+      <c r="B1690" t="n">
+        <v>202.62</v>
+      </c>
+      <c r="C1690" t="n">
+        <v>0.251183690873944</v>
+      </c>
+      <c r="D1690" t="n">
+        <v>0.2857947976780796</v>
+      </c>
+      <c r="E1690" t="n">
+        <v>54.47676403512665</v>
+      </c>
+      <c r="F1690" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1690" t="inlineStr"/>
+    </row>
+    <row r="1691">
+      <c r="A1691" s="2" t="n">
+        <v>45352.82356481482</v>
+      </c>
+      <c r="B1691" t="n">
+        <v>202.7</v>
+      </c>
+      <c r="C1691" t="n">
+        <v>0.2279708299652157</v>
+      </c>
+      <c r="D1691" t="n">
+        <v>0.2742300041355068</v>
+      </c>
+      <c r="E1691" t="n">
+        <v>56.80815271652782</v>
+      </c>
+      <c r="F1691" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1691" t="inlineStr"/>
+    </row>
+    <row r="1692">
+      <c r="A1692" s="2" t="n">
+        <v>45352.82429398148</v>
+      </c>
+      <c r="B1692" t="n">
+        <v>202.37</v>
+      </c>
+      <c r="C1692" t="n">
+        <v>0.180861371077043</v>
+      </c>
+      <c r="D1692" t="n">
+        <v>0.255556277523814</v>
+      </c>
+      <c r="E1692" t="n">
+        <v>46.27938048260789</v>
+      </c>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1692" t="inlineStr"/>
+    </row>
+    <row r="1693">
+      <c r="A1693" s="2" t="n">
+        <v>45352.825</v>
+      </c>
+      <c r="B1693" t="n">
+        <v>202.56</v>
+      </c>
+      <c r="C1693" t="n">
+        <v>0.1570478477762833</v>
+      </c>
+      <c r="D1693" t="n">
+        <v>0.2358545915743079</v>
+      </c>
+      <c r="E1693" t="n">
+        <v>51.81656694254112</v>
+      </c>
+      <c r="F1693" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1693" t="inlineStr"/>
+    </row>
+    <row r="1694">
+      <c r="A1694" s="2" t="n">
+        <v>45352.82570601852</v>
+      </c>
+      <c r="B1694" t="n">
+        <v>202.66</v>
+      </c>
+      <c r="C1694" t="n">
+        <v>0.1445780178651432</v>
+      </c>
+      <c r="D1694" t="n">
+        <v>0.217599276832475</v>
+      </c>
+      <c r="E1694" t="n">
+        <v>54.47617687143001</v>
+      </c>
+      <c r="F1694" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1694" t="inlineStr"/>
+    </row>
+    <row r="1695">
+      <c r="A1695" s="2" t="n">
+        <v>45352.82641203704</v>
+      </c>
+      <c r="B1695" t="n">
+        <v>202.92</v>
+      </c>
+      <c r="C1695" t="n">
+        <v>0.1539013361072534</v>
+      </c>
+      <c r="D1695" t="n">
+        <v>0.2048596886874307</v>
+      </c>
+      <c r="E1695" t="n">
+        <v>60.57018435640428</v>
+      </c>
+      <c r="F1695" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1695" t="inlineStr"/>
+    </row>
+    <row r="1696">
+      <c r="A1696" s="2" t="n">
+        <v>45352.82712962963</v>
+      </c>
+      <c r="B1696" t="n">
+        <v>203.03</v>
+      </c>
+      <c r="C1696" t="n">
+        <v>0.1682269975663644</v>
+      </c>
+      <c r="D1696" t="n">
+        <v>0.1975331504632175</v>
+      </c>
+      <c r="E1696" t="n">
+        <v>62.83681720347251</v>
+      </c>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1696" t="inlineStr"/>
+    </row>
+    <row r="1697">
+      <c r="A1697" s="2" t="n">
+        <v>45352.82783564815</v>
+      </c>
+      <c r="B1697" t="n">
+        <v>203.2</v>
+      </c>
+      <c r="C1697" t="n">
+        <v>0.1910949431817244</v>
+      </c>
+      <c r="D1697" t="n">
+        <v>0.1962455090069188</v>
+      </c>
+      <c r="E1697" t="n">
+        <v>66.08192104110414</v>
+      </c>
+      <c r="F1697" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1697" t="inlineStr"/>
+    </row>
+    <row r="1698">
+      <c r="A1698" s="2" t="n">
+        <v>45352.82854166667</v>
+      </c>
+      <c r="B1698" t="n">
+        <v>203.18</v>
+      </c>
+      <c r="C1698" t="n">
+        <v>0.2052382630435545</v>
+      </c>
+      <c r="D1698" t="n">
+        <v>0.198044059814246</v>
+      </c>
+      <c r="E1698" t="n">
+        <v>65.35884195116235</v>
+      </c>
+      <c r="F1698" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1698" t="inlineStr"/>
+    </row>
+    <row r="1699">
+      <c r="A1699" s="2" t="n">
+        <v>45352.82924768519</v>
+      </c>
+      <c r="B1699" t="n">
+        <v>203.01</v>
+      </c>
+      <c r="C1699" t="n">
+        <v>0.2004190605074427</v>
+      </c>
+      <c r="D1699" t="n">
+        <v>0.1985190599528854</v>
+      </c>
+      <c r="E1699" t="n">
+        <v>59.40833293093925</v>
+      </c>
+      <c r="F1699" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1699" t="inlineStr"/>
+    </row>
+    <row r="1700">
+      <c r="A1700" s="2" t="n">
+        <v>45352.8299537037</v>
+      </c>
+      <c r="B1700" t="n">
+        <v>203.18</v>
+      </c>
+      <c r="C1700" t="n">
+        <v>0.2079206076884645</v>
+      </c>
+      <c r="D1700" t="n">
+        <v>0.2003993695000012</v>
+      </c>
+      <c r="E1700" t="n">
+        <v>63.03285207500182</v>
+      </c>
+      <c r="F1700" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1700" t="inlineStr"/>
+    </row>
+    <row r="1701">
+      <c r="A1701" s="2" t="n">
+        <v>45352.83067129629</v>
+      </c>
+      <c r="B1701" t="n">
+        <v>203.13</v>
+      </c>
+      <c r="C1701" t="n">
+        <v>0.2074398186401254</v>
+      </c>
+      <c r="D1701" t="n">
+        <v>0.2018074593280261</v>
+      </c>
+      <c r="E1701" t="n">
+        <v>61.29915287308835</v>
+      </c>
+      <c r="F1701" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1701" t="inlineStr"/>
+    </row>
+    <row r="1702">
+      <c r="A1702" s="2" t="n">
+        <v>45352.83137731482</v>
+      </c>
+      <c r="B1702" t="n">
+        <v>202.92</v>
+      </c>
+      <c r="C1702" t="n">
+        <v>0.1879470087744437</v>
+      </c>
+      <c r="D1702" t="n">
+        <v>0.1990353692173096</v>
+      </c>
+      <c r="E1702" t="n">
+        <v>54.51692862380889</v>
+      </c>
+      <c r="F1702" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1702" t="inlineStr"/>
+    </row>
+    <row r="1703">
+      <c r="A1703" s="2" t="n">
+        <v>45352.83212962963</v>
+      </c>
+      <c r="B1703" t="n">
+        <v>203.17</v>
+      </c>
+      <c r="C1703" t="n">
+        <v>0.1904760379819379</v>
+      </c>
+      <c r="D1703" t="n">
+        <v>0.1973235029702353</v>
+      </c>
+      <c r="E1703" t="n">
+        <v>60.1671384558619</v>
+      </c>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1703" t="inlineStr"/>
+    </row>
+    <row r="1704">
+      <c r="A1704" s="2" t="n">
+        <v>45352.8328587963</v>
+      </c>
+      <c r="B1704" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="C1704" t="n">
+        <v>0.1847027584381351</v>
+      </c>
+      <c r="D1704" t="n">
+        <v>0.1947993540638153</v>
+      </c>
+      <c r="E1704" t="n">
+        <v>57.99470804473633</v>
+      </c>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1704" t="inlineStr"/>
+    </row>
+    <row r="1705">
+      <c r="A1705" s="2" t="n">
+        <v>45352.83356481481</v>
+      </c>
+      <c r="B1705" t="n">
+        <v>203.15</v>
+      </c>
+      <c r="C1705" t="n">
+        <v>0.1820632629729175</v>
+      </c>
+      <c r="D1705" t="n">
+        <v>0.1922521358456357</v>
+      </c>
+      <c r="E1705" t="n">
+        <v>59.1298480174212</v>
+      </c>
+      <c r="F1705" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1705" t="inlineStr"/>
+    </row>
+    <row r="1706">
+      <c r="A1706" s="2" t="n">
+        <v>45352.83427083334</v>
+      </c>
+      <c r="B1706" t="n">
+        <v>203.11</v>
+      </c>
+      <c r="C1706" t="n">
+        <v>0.1747296039848436</v>
+      </c>
+      <c r="D1706" t="n">
+        <v>0.1887476294734773</v>
+      </c>
+      <c r="E1706" t="n">
+        <v>57.78450969764692</v>
+      </c>
+      <c r="F1706" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1706" t="inlineStr"/>
+    </row>
+    <row r="1707">
+      <c r="A1707" s="2" t="n">
+        <v>45352.83497685185</v>
+      </c>
+      <c r="B1707" t="n">
+        <v>203.12</v>
+      </c>
+      <c r="C1707" t="n">
+        <v>0.1677903600028685</v>
+      </c>
+      <c r="D1707" t="n">
+        <v>0.1845561755793556</v>
+      </c>
+      <c r="E1707" t="n">
+        <v>58.04153097356676</v>
+      </c>
+      <c r="F1707" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1707" t="inlineStr"/>
+    </row>
+    <row r="1708">
+      <c r="A1708" s="2" t="n">
+        <v>45352.83568287037</v>
+      </c>
+      <c r="B1708" t="n">
+        <v>202.99</v>
+      </c>
+      <c r="C1708" t="n">
+        <v>0.150071119162277</v>
+      </c>
+      <c r="D1708" t="n">
+        <v>0.1776591642959399</v>
+      </c>
+      <c r="E1708" t="n">
+        <v>53.48284405365374</v>
+      </c>
+      <c r="F1708" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1708" t="inlineStr"/>
+    </row>
+    <row r="1709">
+      <c r="A1709" s="2" t="n">
+        <v>45352.83638888889</v>
+      </c>
+      <c r="B1709" t="n">
+        <v>202.94</v>
+      </c>
+      <c r="C1709" t="n">
+        <v>0.1304897068893354</v>
+      </c>
+      <c r="D1709" t="n">
+        <v>0.168225272814619</v>
+      </c>
+      <c r="E1709" t="n">
+        <v>51.79775378780013</v>
+      </c>
+      <c r="F1709" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1709" t="inlineStr"/>
+    </row>
+    <row r="1710">
+      <c r="A1710" s="2" t="n">
+        <v>45352.83711805556</v>
+      </c>
+      <c r="B1710" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="C1710" t="n">
+        <v>0.12163829035768</v>
+      </c>
+      <c r="D1710" t="n">
+        <v>0.1589078763232312</v>
+      </c>
+      <c r="E1710" t="n">
+        <v>54.8609562982819</v>
+      </c>
+      <c r="F1710" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1710" t="inlineStr"/>
+    </row>
+    <row r="1711">
+      <c r="A1711" s="2" t="n">
+        <v>45352.83782407407</v>
+      </c>
+      <c r="B1711" t="n">
+        <v>203.17</v>
+      </c>
+      <c r="C1711" t="n">
+        <v>0.1236875988828672</v>
+      </c>
+      <c r="D1711" t="n">
+        <v>0.1518638208351584</v>
+      </c>
+      <c r="E1711" t="n">
+        <v>58.54880833978028</v>
+      </c>
+      <c r="F1711" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1711" t="inlineStr"/>
+    </row>
+    <row r="1712">
+      <c r="A1712" s="2" t="n">
+        <v>45352.83854166666</v>
+      </c>
+      <c r="B1712" t="n">
+        <v>203.14</v>
+      </c>
+      <c r="C1712" t="n">
+        <v>0.121490474805654</v>
+      </c>
+      <c r="D1712" t="n">
+        <v>0.1457891516292575</v>
+      </c>
+      <c r="E1712" t="n">
+        <v>57.3836843372728</v>
+      </c>
+      <c r="F1712" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1712" t="inlineStr"/>
+    </row>
+    <row r="1713">
+      <c r="A1713" s="2" t="n">
+        <v>45352.83925925926</v>
+      </c>
+      <c r="B1713" t="n">
+        <v>203.17</v>
+      </c>
+      <c r="C1713" t="n">
+        <v>0.1207777368556435</v>
+      </c>
+      <c r="D1713" t="n">
+        <v>0.1407868686745347</v>
+      </c>
+      <c r="E1713" t="n">
+        <v>58.27782473198121</v>
+      </c>
+      <c r="F1713" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1713" t="inlineStr"/>
+    </row>
+    <row r="1714">
+      <c r="A1714" s="2" t="n">
+        <v>45352.83996527778</v>
+      </c>
+      <c r="B1714" t="n">
+        <v>203.29</v>
+      </c>
+      <c r="C1714" t="n">
+        <v>0.1284155890388945</v>
+      </c>
+      <c r="D1714" t="n">
+        <v>0.1383126127474067</v>
+      </c>
+      <c r="E1714" t="n">
+        <v>61.73613040675354</v>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1714" t="inlineStr"/>
+    </row>
+    <row r="1715">
+      <c r="A1715" s="2" t="n">
+        <v>45352.84068287037</v>
+      </c>
+      <c r="B1715" t="n">
+        <v>203.31</v>
+      </c>
+      <c r="C1715" t="n">
+        <v>0.134531677341613</v>
+      </c>
+      <c r="D1715" t="n">
+        <v>0.1375564256662479</v>
+      </c>
+      <c r="E1715" t="n">
+        <v>62.29705583995141</v>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1715" t="inlineStr"/>
+    </row>
+    <row r="1716">
+      <c r="A1716" s="2" t="n">
+        <v>45352.84138888889</v>
+      </c>
+      <c r="B1716" t="n">
+        <v>203.31</v>
+      </c>
+      <c r="C1716" t="n">
+        <v>0.1377903598882426</v>
+      </c>
+      <c r="D1716" t="n">
+        <v>0.1376032125106469</v>
+      </c>
+      <c r="E1716" t="n">
+        <v>62.29705583995141</v>
+      </c>
+      <c r="F1716" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1716" t="inlineStr"/>
+    </row>
+    <row r="1717">
+      <c r="A1717" s="2" t="n">
+        <v>45352.84209490741</v>
+      </c>
+      <c r="B1717" t="n">
+        <v>203.49</v>
+      </c>
+      <c r="C1717" t="n">
+        <v>0.1531321725969974</v>
+      </c>
+      <c r="D1717" t="n">
+        <v>0.140709004527917</v>
+      </c>
+      <c r="E1717" t="n">
+        <v>67.30050175038059</v>
+      </c>
+      <c r="F1717" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1717" t="inlineStr"/>
+    </row>
+    <row r="1718">
+      <c r="A1718" s="2" t="n">
+        <v>45352.84280092592</v>
+      </c>
+      <c r="B1718" t="n">
+        <v>203.33</v>
+      </c>
+      <c r="C1718" t="n">
+        <v>0.1506434825814154</v>
+      </c>
+      <c r="D1718" t="n">
+        <v>0.1426959001386167</v>
+      </c>
+      <c r="E1718" t="n">
+        <v>59.7146090013221</v>
+      </c>
+      <c r="F1718" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1718" t="inlineStr"/>
+    </row>
+    <row r="1719">
+      <c r="A1719" s="2" t="n">
+        <v>45352.84350694445</v>
+      </c>
+      <c r="B1719" t="n">
+        <v>203.36</v>
+      </c>
+      <c r="C1719" t="n">
+        <v>0.1493700817705417</v>
+      </c>
+      <c r="D1719" t="n">
+        <v>0.1440307364650017</v>
+      </c>
+      <c r="E1719" t="n">
+        <v>60.61110458336803</v>
+      </c>
+      <c r="F1719" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1719" t="inlineStr"/>
+    </row>
+    <row r="1720">
+      <c r="A1720" s="2" t="n">
+        <v>45352.84422453704</v>
+      </c>
+      <c r="B1720" t="n">
+        <v>203.35</v>
+      </c>
+      <c r="C1720" t="n">
+        <v>0.145872459120767</v>
+      </c>
+      <c r="D1720" t="n">
+        <v>0.1443990809961547</v>
+      </c>
+      <c r="E1720" t="n">
+        <v>60.13075144730367</v>
+      </c>
+      <c r="F1720" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1720" t="inlineStr"/>
+    </row>
+    <row r="1721">
+      <c r="A1721" s="2" t="n">
+        <v>45352.84494212963</v>
+      </c>
+      <c r="B1721" t="n">
+        <v>203.48</v>
+      </c>
+      <c r="C1721" t="n">
+        <v>0.1518401626387629</v>
+      </c>
+      <c r="D1721" t="n">
+        <v>0.1458872973246764</v>
+      </c>
+      <c r="E1721" t="n">
+        <v>64.11254821242983</v>
+      </c>
+      <c r="F1721" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1721" t="inlineStr"/>
+    </row>
+    <row r="1722">
+      <c r="A1722" s="2" t="n">
+        <v>45352.84564814815</v>
+      </c>
+      <c r="B1722" t="n">
+        <v>203.51</v>
+      </c>
+      <c r="C1722" t="n">
+        <v>0.1571785039974714</v>
+      </c>
+      <c r="D1722" t="n">
+        <v>0.1481455386592354</v>
+      </c>
+      <c r="E1722" t="n">
+        <v>64.98170596832445</v>
+      </c>
+      <c r="F1722" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1722" t="inlineStr"/>
+    </row>
+    <row r="1723">
+      <c r="A1723" s="2" t="n">
+        <v>45352.84638888889</v>
+      </c>
+      <c r="B1723" t="n">
+        <v>203.53</v>
+      </c>
+      <c r="C1723" t="n">
+        <v>0.1611651987485914</v>
+      </c>
+      <c r="D1723" t="n">
+        <v>0.1507494706771066</v>
+      </c>
+      <c r="E1723" t="n">
+        <v>65.58019719720522</v>
+      </c>
+      <c r="F1723" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1723" t="inlineStr"/>
+    </row>
+    <row r="1724">
+      <c r="A1724" s="2" t="n">
+        <v>45352.84709490741</v>
+      </c>
+      <c r="B1724" t="n">
+        <v>203.64</v>
+      </c>
+      <c r="C1724" t="n">
+        <v>0.1712269658755758</v>
+      </c>
+      <c r="D1724" t="n">
+        <v>0.1548449697168004</v>
+      </c>
+      <c r="E1724" t="n">
+        <v>68.7442260503955</v>
+      </c>
+      <c r="F1724" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1724" t="inlineStr"/>
+    </row>
+    <row r="1725">
+      <c r="A1725" s="2" t="n">
+        <v>45352.84780092593</v>
+      </c>
+      <c r="B1725" t="n">
+        <v>203.62</v>
+      </c>
+      <c r="C1725" t="n">
+        <v>0.1755633707086588</v>
+      </c>
+      <c r="D1725" t="n">
+        <v>0.1589886499151721</v>
+      </c>
+      <c r="E1725" t="n">
+        <v>67.52876001819315</v>
+      </c>
+      <c r="F1725" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1725" t="inlineStr"/>
+    </row>
+    <row r="1726">
+      <c r="A1726" s="2" t="n">
+        <v>45352.84851851852</v>
+      </c>
+      <c r="B1726" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="C1726" t="n">
+        <v>0.1777578375071585</v>
+      </c>
+      <c r="D1726" t="n">
+        <v>0.1627424874335694</v>
+      </c>
+      <c r="E1726" t="n">
+        <v>67.8349880928015</v>
+      </c>
+      <c r="F1726" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1726" t="inlineStr"/>
+    </row>
+    <row r="1727">
+      <c r="A1727" s="2" t="n">
+        <v>45352.84922453704</v>
+      </c>
+      <c r="B1727" t="n">
+        <v>203.65</v>
+      </c>
+      <c r="C1727" t="n">
+        <v>0.1790468603549016</v>
+      </c>
+      <c r="D1727" t="n">
+        <v>0.1660033620178358</v>
+      </c>
+      <c r="E1727" t="n">
+        <v>68.47532918110635</v>
+      </c>
+      <c r="F1727" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1727" t="inlineStr"/>
+    </row>
+    <row r="1728">
+      <c r="A1728" s="2" t="n">
+        <v>45352.84993055555</v>
+      </c>
+      <c r="B1728" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="C1728" t="n">
+        <v>0.1764209168839841</v>
+      </c>
+      <c r="D1728" t="n">
+        <v>0.1680868729910655</v>
+      </c>
+      <c r="E1728" t="n">
+        <v>67.0380740573606</v>
+      </c>
+      <c r="F1728" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1728" t="inlineStr"/>
+    </row>
+    <row r="1729">
+      <c r="A1729" s="2" t="n">
+        <v>45352.85065972222</v>
+      </c>
+      <c r="B1729" t="n">
+        <v>203.96</v>
+      </c>
+      <c r="C1729" t="n">
+        <v>0.1986778453112095</v>
+      </c>
+      <c r="D1729" t="n">
+        <v>0.1742050674550943</v>
+      </c>
+      <c r="E1729" t="n">
+        <v>75.99216291352401</v>
+      </c>
+      <c r="F1729" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1729" t="inlineStr"/>
+    </row>
+    <row r="1730">
+      <c r="A1730" s="2" t="n">
+        <v>45352.85136574074</v>
+      </c>
+      <c r="B1730" t="n">
+        <v>203.94</v>
+      </c>
+      <c r="C1730" t="n">
+        <v>0.2122560331637544</v>
+      </c>
+      <c r="D1730" t="n">
+        <v>0.1818152605968263</v>
+      </c>
+      <c r="E1730" t="n">
+        <v>74.66829159158665</v>
+      </c>
+      <c r="F1730" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1730" t="inlineStr"/>
+    </row>
+    <row r="1731">
+      <c r="A1731" s="2" t="n">
+        <v>45352.85207175926</v>
+      </c>
+      <c r="B1731" t="n">
+        <v>204.23</v>
+      </c>
+      <c r="C1731" t="n">
+        <v>0.2436092454908305</v>
+      </c>
+      <c r="D1731" t="n">
+        <v>0.1941740575756272</v>
+      </c>
+      <c r="E1731" t="n">
+        <v>80.08573061714524</v>
+      </c>
+      <c r="F1731" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1731" t="inlineStr"/>
+    </row>
+    <row r="1732">
+      <c r="A1732" s="2" t="n">
+        <v>45352.85277777778</v>
+      </c>
+      <c r="B1732" t="n">
+        <v>204.29</v>
+      </c>
+      <c r="C1732" t="n">
+        <v>0.2701838791317641</v>
+      </c>
+      <c r="D1732" t="n">
+        <v>0.2093760218868546</v>
+      </c>
+      <c r="E1732" t="n">
+        <v>80.99149541785241</v>
+      </c>
+      <c r="F1732" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1732" t="inlineStr"/>
+    </row>
+    <row r="1733">
+      <c r="A1733" s="2" t="n">
+        <v>45352.85348379629</v>
+      </c>
+      <c r="B1733" t="n">
+        <v>204.28</v>
+      </c>
+      <c r="C1733" t="n">
+        <v>0.2871277216808608</v>
+      </c>
+      <c r="D1733" t="n">
+        <v>0.2249263618456558</v>
+      </c>
+      <c r="E1733" t="n">
+        <v>80.33566300462087</v>
+      </c>
+      <c r="F1733" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1733" t="inlineStr"/>
+    </row>
+    <row r="1734">
+      <c r="A1734" s="2" t="n">
+        <v>45352.85418981482</v>
+      </c>
+      <c r="B1734" t="n">
+        <v>204.35</v>
+      </c>
+      <c r="C1734" t="n">
+        <v>0.3027147467927875</v>
+      </c>
+      <c r="D1734" t="n">
+        <v>0.2404840388350822</v>
+      </c>
+      <c r="E1734" t="n">
+        <v>81.46697525084542</v>
+      </c>
+      <c r="F1734" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1734" t="inlineStr"/>
+    </row>
+    <row r="1735">
+      <c r="A1735" s="2" t="n">
+        <v>45352.85489583333</v>
+      </c>
+      <c r="B1735" t="n">
+        <v>204.24</v>
+      </c>
+      <c r="C1735" t="n">
+        <v>0.3027021340252816</v>
+      </c>
+      <c r="D1735" t="n">
+        <v>0.2529276578731221</v>
+      </c>
+      <c r="E1735" t="n">
+        <v>74.23903086355088</v>
+      </c>
+      <c r="F1735" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1735" t="inlineStr"/>
+    </row>
+    <row r="1736">
+      <c r="A1736" s="2" t="n">
+        <v>45352.85560185185</v>
+      </c>
+      <c r="B1736" t="n">
+        <v>204.11</v>
+      </c>
+      <c r="C1736" t="n">
+        <v>0.2888722848880434</v>
+      </c>
+      <c r="D1736" t="n">
+        <v>0.2601165832761064</v>
+      </c>
+      <c r="E1736" t="n">
+        <v>66.7065655230939</v>
+      </c>
+      <c r="F1736" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1736" t="inlineStr"/>
+    </row>
+    <row r="1737">
+      <c r="A1737" s="2" t="n">
+        <v>45352.85630787037</v>
+      </c>
+      <c r="B1737" t="n">
+        <v>204.21</v>
+      </c>
+      <c r="C1737" t="n">
+        <v>0.2827221491265277</v>
+      </c>
+      <c r="D1737" t="n">
+        <v>0.2646376964461907</v>
+      </c>
+      <c r="E1737" t="n">
+        <v>69.28796256305479</v>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1737" t="inlineStr"/>
+    </row>
+    <row r="1738">
+      <c r="A1738" s="2" t="n">
+        <v>45352.85702546296</v>
+      </c>
+      <c r="B1738" t="n">
+        <v>203.97</v>
+      </c>
+      <c r="C1738" t="n">
+        <v>0.2555364627136498</v>
+      </c>
+      <c r="D1738" t="n">
+        <v>0.2628174496996825</v>
+      </c>
+      <c r="E1738" t="n">
+        <v>57.72085242872301</v>
+      </c>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1738" t="inlineStr"/>
+    </row>
+    <row r="1739">
+      <c r="A1739" s="2" t="n">
+        <v>45352.85774305555</v>
+      </c>
+      <c r="B1739" t="n">
+        <v>203.98</v>
+      </c>
+      <c r="C1739" t="n">
+        <v>0.2321227601085525</v>
+      </c>
+      <c r="D1739" t="n">
+        <v>0.2566785117814565</v>
+      </c>
+      <c r="E1739" t="n">
+        <v>58.03521118601426</v>
+      </c>
+      <c r="F1739" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1739" t="inlineStr"/>
+    </row>
+    <row r="1740">
+      <c r="A1740" s="2" t="n">
+        <v>45352.85846064815</v>
+      </c>
+      <c r="B1740" t="n">
+        <v>204.3</v>
+      </c>
+      <c r="C1740" t="n">
+        <v>0.2366604830235417</v>
+      </c>
+      <c r="D1740" t="n">
+        <v>0.2526749060298736</v>
+      </c>
+      <c r="E1740" t="n">
+        <v>66.59472431912499</v>
+      </c>
+      <c r="F1740" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1740" t="inlineStr"/>
+    </row>
+    <row r="1741">
+      <c r="A1741" s="2" t="n">
+        <v>45352.85920138889</v>
+      </c>
+      <c r="B1741" t="n">
+        <v>204.28</v>
+      </c>
+      <c r="C1741" t="n">
+        <v>0.2359232518826104</v>
+      </c>
+      <c r="D1741" t="n">
+        <v>0.249324575200421</v>
+      </c>
+      <c r="E1741" t="n">
+        <v>65.69284835202797</v>
+      </c>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1741" t="inlineStr"/>
+    </row>
+    <row r="1742">
+      <c r="A1742" s="2" t="n">
+        <v>45352.85990740741</v>
+      </c>
+      <c r="B1742" t="n">
+        <v>204.16</v>
+      </c>
+      <c r="C1742" t="n">
+        <v>0.2230844154971692</v>
+      </c>
+      <c r="D1742" t="n">
+        <v>0.2440765432597706</v>
+      </c>
+      <c r="E1742" t="n">
+        <v>60.40682662528989</v>
+      </c>
+      <c r="F1742" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1742" t="inlineStr"/>
+    </row>
+    <row r="1743">
+      <c r="A1743" s="2" t="n">
+        <v>45352.86061342592</v>
+      </c>
+      <c r="B1743" t="n">
+        <v>204.22</v>
+      </c>
+      <c r="C1743" t="n">
+        <v>0.2152695503461928</v>
+      </c>
+      <c r="D1743" t="n">
+        <v>0.2383151446770551</v>
+      </c>
+      <c r="E1743" t="n">
+        <v>62.05106627468786</v>
+      </c>
+      <c r="F1743" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1743" t="inlineStr"/>
+    </row>
+    <row r="1744">
+      <c r="A1744" s="2" t="n">
+        <v>45352.86131944445</v>
+      </c>
+      <c r="B1744" t="n">
+        <v>204.19</v>
+      </c>
+      <c r="C1744" t="n">
+        <v>0.2043004161071735</v>
+      </c>
+      <c r="D1744" t="n">
+        <v>0.2315121989630788</v>
+      </c>
+      <c r="E1744" t="n">
+        <v>60.69386491390075</v>
+      </c>
+      <c r="F1744" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1744" t="inlineStr"/>
+    </row>
+    <row r="1745">
+      <c r="A1745" s="2" t="n">
+        <v>45352.86202546296</v>
+      </c>
+      <c r="B1745" t="n">
+        <v>204.24</v>
+      </c>
+      <c r="C1745" t="n">
+        <v>0.1973667591836374</v>
+      </c>
+      <c r="D1745" t="n">
+        <v>0.2246831110071905</v>
+      </c>
+      <c r="E1745" t="n">
+        <v>62.17865625234067</v>
+      </c>
+      <c r="F1745" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1745" t="inlineStr"/>
+    </row>
+    <row r="1746">
+      <c r="A1746" s="2" t="n">
+        <v>45352.86273148148</v>
+      </c>
+      <c r="B1746" t="n">
+        <v>204.41</v>
+      </c>
+      <c r="C1746" t="n">
+        <v>0.2032464666175144</v>
+      </c>
+      <c r="D1746" t="n">
+        <v>0.2203957821292553</v>
+      </c>
+      <c r="E1746" t="n">
+        <v>66.77426716531237</v>
+      </c>
+      <c r="F1746" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1746" t="inlineStr"/>
+    </row>
+    <row r="1747">
+      <c r="A1747" s="2" t="n">
+        <v>45352.8634375</v>
+      </c>
+      <c r="B1747" t="n">
+        <v>204.37</v>
+      </c>
+      <c r="C1747" t="n">
+        <v>0.2023459927652311</v>
+      </c>
+      <c r="D1747" t="n">
+        <v>0.2167858242564505</v>
+      </c>
+      <c r="E1747" t="n">
+        <v>64.77973422811615</v>
+      </c>
+      <c r="F1747" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1747" t="inlineStr"/>
+    </row>
+    <row r="1748">
+      <c r="A1748" s="2" t="n">
+        <v>45352.86416666667</v>
+      </c>
+      <c r="B1748" t="n">
+        <v>204.34</v>
+      </c>
+      <c r="C1748" t="n">
+        <v>0.1969413936756439</v>
+      </c>
+      <c r="D1748" t="n">
+        <v>0.2128169381402892</v>
+      </c>
+      <c r="E1748" t="n">
+        <v>63.25370106832658</v>
+      </c>
+      <c r="F1748" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1748" t="inlineStr"/>
+    </row>
+    <row r="1749">
+      <c r="A1749" s="2" t="n">
+        <v>45352.86487268518</v>
+      </c>
+      <c r="B1749" t="n">
+        <v>204.27</v>
+      </c>
+      <c r="C1749" t="n">
+        <v>0.184878629218872</v>
+      </c>
+      <c r="D1749" t="n">
+        <v>0.2072292763560057</v>
+      </c>
+      <c r="E1749" t="n">
+        <v>59.71864564395791</v>
+      </c>
+      <c r="F1749" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1749" t="inlineStr"/>
+    </row>
+    <row r="1750">
+      <c r="A1750" s="2" t="n">
+        <v>45352.86561342593</v>
+      </c>
+      <c r="B1750" t="n">
+        <v>204.44</v>
+      </c>
+      <c r="C1750" t="n">
+        <v>0.1868821199809929</v>
+      </c>
+      <c r="D1750" t="n">
+        <v>0.2031598450810032</v>
+      </c>
+      <c r="E1750" t="n">
+        <v>64.85556157519636</v>
+      </c>
+      <c r="F1750" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1750" t="inlineStr"/>
+    </row>
+    <row r="1751">
+      <c r="A1751" s="2" t="n">
+        <v>45352.86631944445</v>
+      </c>
+      <c r="B1751" t="n">
+        <v>204.24</v>
+      </c>
+      <c r="C1751" t="n">
+        <v>0.1703676797520757</v>
+      </c>
+      <c r="D1751" t="n">
+        <v>0.1966014120152177</v>
+      </c>
+      <c r="E1751" t="n">
+        <v>55.83433662474577</v>
+      </c>
+      <c r="F1751" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1751" t="inlineStr"/>
+    </row>
+    <row r="1752">
+      <c r="A1752" s="2" t="n">
+        <v>45352.86702546296</v>
+      </c>
+      <c r="B1752" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="C1752" t="n">
+        <v>0.1443194125670288</v>
+      </c>
+      <c r="D1752" t="n">
+        <v>0.1861450121255799</v>
+      </c>
+      <c r="E1752" t="n">
+        <v>50.53531172139254</v>
+      </c>
+      <c r="F1752" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1752" t="inlineStr"/>
+    </row>
+    <row r="1753">
+      <c r="A1753" s="2" t="n">
+        <v>45352.86773148148</v>
+      </c>
+      <c r="B1753" t="n">
+        <v>203.95</v>
+      </c>
+      <c r="C1753" t="n">
+        <v>0.1103007483899603</v>
+      </c>
+      <c r="D1753" t="n">
+        <v>0.170976159378456</v>
+      </c>
+      <c r="E1753" t="n">
+        <v>45.54753105672678</v>
+      </c>
+      <c r="F1753" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1753" t="inlineStr"/>
+    </row>
+    <row r="1754">
+      <c r="A1754" s="2" t="n">
+        <v>45352.8684375</v>
+      </c>
+      <c r="B1754" t="n">
+        <v>203.97</v>
+      </c>
+      <c r="C1754" t="n">
+        <v>0.08398640183082762</v>
+      </c>
+      <c r="D1754" t="n">
+        <v>0.1535782078689303</v>
+      </c>
+      <c r="E1754" t="n">
+        <v>46.3084558114465</v>
+      </c>
+      <c r="F1754" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1754" t="inlineStr"/>
+    </row>
+    <row r="1755">
+      <c r="A1755" s="2" t="n">
+        <v>45352.86914351852</v>
+      </c>
+      <c r="B1755" t="n">
+        <v>203.76</v>
+      </c>
+      <c r="C1755" t="n">
+        <v>0.04566050179923309</v>
+      </c>
+      <c r="D1755" t="n">
+        <v>0.1319946666549909</v>
+      </c>
+      <c r="E1755" t="n">
+        <v>39.9895153898023</v>
+      </c>
+      <c r="F1755" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1755" t="inlineStr"/>
+    </row>
+    <row r="1756">
+      <c r="A1756" s="2" t="n">
+        <v>45352.86984953703</v>
+      </c>
+      <c r="B1756" t="n">
+        <v>203.63</v>
+      </c>
+      <c r="C1756" t="n">
+        <v>0.004742369275334113</v>
+      </c>
+      <c r="D1756" t="n">
+        <v>0.1065442071790595</v>
+      </c>
+      <c r="E1756" t="n">
+        <v>36.65504785746626</v>
+      </c>
+      <c r="F1756" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1756" t="inlineStr"/>
+    </row>
+    <row r="1757">
+      <c r="A1757" s="2" t="n">
+        <v>45352.87141203704</v>
+      </c>
+      <c r="B1757" t="n">
+        <v>203.52</v>
+      </c>
+      <c r="C1757" t="n">
+        <v>-0.03614496953139223</v>
+      </c>
+      <c r="D1757" t="n">
+        <v>0.07800637183696919</v>
+      </c>
+      <c r="E1757" t="n">
+        <v>34.06657929186044</v>
+      </c>
+      <c r="F1757" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1757" t="inlineStr"/>
+    </row>
+    <row r="1758">
+      <c r="A1758" s="2" t="n">
+        <v>45352.90459490741</v>
+      </c>
+      <c r="B1758" t="n">
+        <v>202.85</v>
+      </c>
+      <c r="C1758" t="n">
+        <v>-0.1212145942998575</v>
+      </c>
+      <c r="D1758" t="n">
+        <v>0.03816217860960386</v>
+      </c>
+      <c r="E1758" t="n">
+        <v>23.28211909712698</v>
+      </c>
+      <c r="F1758" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1758" t="inlineStr"/>
+    </row>
+    <row r="1759">
+      <c r="A1759" s="2" t="n">
+        <v>45352.90533564815</v>
+      </c>
+      <c r="B1759" t="n">
+        <v>202.94</v>
+      </c>
+      <c r="C1759" t="n">
+        <v>-0.1793037351378075</v>
+      </c>
+      <c r="D1759" t="n">
+        <v>-0.005331004139878411</v>
+      </c>
+      <c r="E1759" t="n">
+        <v>26.64159961944571</v>
+      </c>
+      <c r="F1759" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1759" t="inlineStr"/>
+    </row>
+    <row r="1760">
+      <c r="A1760" s="2" t="n">
+        <v>45352.90604166667</v>
+      </c>
+      <c r="B1760" t="n">
+        <v>202.85</v>
+      </c>
+      <c r="C1760" t="n">
+        <v>-0.2299513100377908</v>
+      </c>
+      <c r="D1760" t="n">
+        <v>-0.05025506531946089</v>
+      </c>
+      <c r="E1760" t="n">
+        <v>25.44180177554477</v>
+      </c>
+      <c r="F1760" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1760" t="inlineStr"/>
+    </row>
+    <row r="1761">
+      <c r="A1761" s="2" t="n">
+        <v>45352.90674768519</v>
+      </c>
+      <c r="B1761" t="n">
+        <v>202.89</v>
+      </c>
+      <c r="C1761" t="n">
+        <v>-0.2638210475230665</v>
+      </c>
+      <c r="D1761" t="n">
+        <v>-0.09296826176018201</v>
+      </c>
+      <c r="E1761" t="n">
+        <v>27.0150003897852</v>
+      </c>
+      <c r="F1761" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1761" t="inlineStr"/>
+    </row>
+    <row r="1762">
+      <c r="A1762" s="2" t="n">
+        <v>45352.90748842592</v>
+      </c>
+      <c r="B1762" t="n">
+        <v>203.04</v>
+      </c>
+      <c r="C1762" t="n">
+        <v>-0.2753848470056255</v>
+      </c>
+      <c r="D1762" t="n">
+        <v>-0.1294515788092707</v>
+      </c>
+      <c r="E1762" t="n">
+        <v>32.74590080767128</v>
+      </c>
+      <c r="F1762" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1762" t="inlineStr"/>
+    </row>
+    <row r="1763">
+      <c r="A1763" s="2" t="n">
+        <v>45352.90820601852</v>
+      </c>
+      <c r="B1763" t="n">
+        <v>203.01</v>
+      </c>
+      <c r="C1763" t="n">
+        <v>-0.2836996774035754</v>
+      </c>
+      <c r="D1763" t="n">
+        <v>-0.1603011985281317</v>
+      </c>
+      <c r="E1763" t="n">
+        <v>32.20130116536978</v>
+      </c>
+      <c r="F1763" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1763" t="inlineStr"/>
+    </row>
+    <row r="1764">
+      <c r="A1764" s="2" t="n">
+        <v>45352.90891203703</v>
+      </c>
+      <c r="B1764" t="n">
+        <v>202.96</v>
+      </c>
+      <c r="C1764" t="n">
+        <v>-0.2909697048959288</v>
+      </c>
+      <c r="D1764" t="n">
+        <v>-0.1864348998016911</v>
+      </c>
+      <c r="E1764" t="n">
+        <v>31.2679329347164</v>
+      </c>
+      <c r="F1764" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1764" t="inlineStr"/>
+    </row>
+    <row r="1765">
+      <c r="A1765" s="2" t="n">
+        <v>45352.9096412037</v>
+      </c>
+      <c r="B1765" t="n">
+        <v>203.12</v>
+      </c>
+      <c r="C1765" t="n">
+        <v>-0.2805861685449713</v>
+      </c>
+      <c r="D1765" t="n">
+        <v>-0.2052651535503471</v>
+      </c>
+      <c r="E1765" t="n">
+        <v>37.50995230094079</v>
+      </c>
+      <c r="F1765" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1765" t="inlineStr"/>
+    </row>
+    <row r="1766">
+      <c r="A1766" s="2" t="n">
+        <v>45352.91038194444</v>
+      </c>
+      <c r="B1766" t="n">
+        <v>203.16</v>
+      </c>
+      <c r="C1766" t="n">
+        <v>-0.2660624729019503</v>
+      </c>
+      <c r="D1766" t="n">
+        <v>-0.2174246174206678</v>
+      </c>
+      <c r="E1766" t="n">
+        <v>39.00140750106506</v>
+      </c>
+      <c r="F1766" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1766" t="inlineStr"/>
+    </row>
+    <row r="1767">
+      <c r="A1767" s="2" t="n">
+        <v>45352.91109953704</v>
+      </c>
+      <c r="B1767" t="n">
+        <v>203.08</v>
+      </c>
+      <c r="C1767" t="n">
+        <v>-0.2580332244876331</v>
+      </c>
+      <c r="D1767" t="n">
+        <v>-0.2255463388340609</v>
+      </c>
+      <c r="E1767" t="n">
+        <v>37.09452534891334</v>
+      </c>
+      <c r="F1767" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1767" t="inlineStr"/>
+    </row>
+    <row r="1768">
+      <c r="A1768" s="2" t="n">
+        <v>45352.91180555556</v>
+      </c>
+      <c r="B1768" t="n">
+        <v>203.12</v>
+      </c>
+      <c r="C1768" t="n">
+        <v>-0.2456110700378247</v>
+      </c>
+      <c r="D1768" t="n">
+        <v>-0.2295592850748137</v>
+      </c>
+      <c r="E1768" t="n">
+        <v>38.70814446628682</v>
+      </c>
+      <c r="F1768" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1768" t="inlineStr"/>
+    </row>
+    <row r="1769">
+      <c r="A1769" s="2" t="n">
+        <v>45352.91251157408</v>
+      </c>
+      <c r="B1769" t="n">
+        <v>203.12</v>
+      </c>
+      <c r="C1769" t="n">
+        <v>-0.2330796262946535</v>
+      </c>
+      <c r="D1769" t="n">
+        <v>-0.2302633533187816</v>
+      </c>
+      <c r="E1769" t="n">
+        <v>38.70814446628682</v>
+      </c>
+      <c r="F1769" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1769" t="inlineStr"/>
+    </row>
+    <row r="1770">
+      <c r="A1770" s="2" t="n">
+        <v>45352.91321759259</v>
+      </c>
+      <c r="B1770" t="n">
+        <v>203.16</v>
+      </c>
+      <c r="C1770" t="n">
+        <v>-0.2174144823215443</v>
+      </c>
+      <c r="D1770" t="n">
+        <v>-0.2276935791193342</v>
+      </c>
+      <c r="E1770" t="n">
+        <v>40.47887740991592</v>
+      </c>
+      <c r="F1770" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1770" t="inlineStr"/>
+    </row>
+    <row r="1771">
+      <c r="A1771" s="2" t="n">
+        <v>45352.91392361111</v>
+      </c>
+      <c r="B1771" t="n">
+        <v>202.96</v>
+      </c>
+      <c r="C1771" t="n">
+        <v>-0.2186179794101974</v>
+      </c>
+      <c r="D1771" t="n">
+        <v>-0.2258784591775069</v>
+      </c>
+      <c r="E1771" t="n">
+        <v>35.02958646583656</v>
+      </c>
+      <c r="F1771" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1771" t="inlineStr"/>
+    </row>
+    <row r="1772">
+      <c r="A1772" s="2" t="n">
+        <v>45352.91462962963</v>
+      </c>
+      <c r="B1772" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="C1772" t="n">
+        <v>-0.2059014260817946</v>
+      </c>
+      <c r="D1772" t="n">
+        <v>-0.2218830525583644</v>
+      </c>
+      <c r="E1772" t="n">
+        <v>41.01552155658013</v>
+      </c>
+      <c r="F1772" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1772" t="inlineStr"/>
+    </row>
+    <row r="1773">
+      <c r="A1773" s="2" t="n">
+        <v>45352.91533564815</v>
+      </c>
+      <c r="B1773" t="n">
+        <v>203.15</v>
+      </c>
+      <c r="C1773" t="n">
+        <v>-0.1896032555130489</v>
+      </c>
+      <c r="D1773" t="n">
+        <v>-0.2154270931493013</v>
+      </c>
+      <c r="E1773" t="n">
+        <v>43.03415546663106</v>
+      </c>
+      <c r="F1773" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1773" t="inlineStr"/>
+    </row>
+    <row r="1774">
+      <c r="A1774" s="2" t="n">
+        <v>45352.91604166666</v>
+      </c>
+      <c r="B1774" t="n">
+        <v>203.16</v>
+      </c>
+      <c r="C1774" t="n">
+        <v>-0.1738755918991899</v>
+      </c>
+      <c r="D1774" t="n">
+        <v>-0.2071167928992791</v>
+      </c>
+      <c r="E1774" t="n">
+        <v>43.45098601209377</v>
+      </c>
+      <c r="F1774" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1774" t="inlineStr"/>
+    </row>
+    <row r="1775">
+      <c r="A1775" s="2" t="n">
+        <v>45352.91674768519</v>
+      </c>
+      <c r="B1775" t="n">
+        <v>203.03</v>
+      </c>
+      <c r="C1775" t="n">
+        <v>-0.1699422304706957</v>
+      </c>
+      <c r="D1775" t="n">
+        <v>-0.1996818804135624</v>
+      </c>
+      <c r="E1775" t="n">
+        <v>39.41344093482515</v>
+      </c>
+      <c r="F1775" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1775" t="inlineStr"/>
+    </row>
+    <row r="1776">
+      <c r="A1776" s="2" t="n">
+        <v>45352.9174537037</v>
+      </c>
+      <c r="B1776" t="n">
+        <v>202.98</v>
+      </c>
+      <c r="C1776" t="n">
+        <v>-0.168912477437317</v>
+      </c>
+      <c r="D1776" t="n">
+        <v>-0.1935279998183133</v>
+      </c>
+      <c r="E1776" t="n">
+        <v>37.95270466043734</v>
+      </c>
+      <c r="F1776" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1776" t="inlineStr"/>
+    </row>
+    <row r="1777">
+      <c r="A1777" s="2" t="n">
+        <v>45352.91815972222</v>
+      </c>
+      <c r="B1777" t="n">
+        <v>202.74</v>
+      </c>
+      <c r="C1777" t="n">
+        <v>-0.1853260615001773</v>
+      </c>
+      <c r="D1777" t="n">
+        <v>-0.1918876121546861</v>
+      </c>
+      <c r="E1777" t="n">
+        <v>31.8507020107819</v>
+      </c>
+      <c r="F1777" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G1777" t="inlineStr"/>
+    </row>
+    <row r="1778">
+      <c r="A1778" s="2" t="n">
+        <v>45352.91886574074</v>
+      </c>
+      <c r="B1778" t="n">
+        <v>202.62</v>
+      </c>
+      <c r="C1778" t="n">
+        <v>-0.2056463787972973</v>
+      </c>
+      <c r="D1778" t="n">
+        <v>-0.1946393654832084</v>
+      </c>
+      <c r="E1778" t="n">
+        <v>29.31297852714984</v>
+      </c>
+      <c r="F1778" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1778" t="inlineStr"/>
+    </row>
+    <row r="1779">
+      <c r="A1779" s="2" t="n">
+        <v>45352.91957175926</v>
+      </c>
+      <c r="B1779" t="n">
+        <v>202.84</v>
+      </c>
+      <c r="C1779" t="n">
+        <v>-0.2016734492859769</v>
+      </c>
+      <c r="D1779" t="n">
+        <v>-0.1960461822437621</v>
+      </c>
+      <c r="E1779" t="n">
+        <v>38.92117894603711</v>
+      </c>
+      <c r="F1779" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1779" t="inlineStr"/>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45352.92027777778</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>202.86</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>-0.1946670407025977</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>-0.1957703539355292</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>39.7233071475874</v>
+      </c>
+      <c r="F1780" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1780" t="inlineStr"/>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45352.92104166667</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>202.86</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>-0.18695926143414</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>-0.1940081354352514</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>39.7233071475874</v>
+      </c>
+      <c r="F1781" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45352.92174768518</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>202.84</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>-0.1803852547544693</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>-0.191283559299095</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>39.12736634248143</v>
+      </c>
+      <c r="F1782" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45352.9224537037</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>202.62</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>-0.1907288648515362</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>-0.1911726204095832</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>33.22299256774923</v>
+      </c>
+      <c r="F1783" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45352.92315972222</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>202.75</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>-0.1862889141885091</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>-0.1901958791653685</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>39.07363859151076</v>
+      </c>
+      <c r="F1784" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45352.92386574074</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>202.75</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>-0.1806873697751996</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>-0.1882941772873347</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>39.07363859151076</v>
+      </c>
+      <c r="F1785" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45352.92457175926</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>202.78</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>-0.1718464176590544</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>-0.1850046253616787</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>40.46956711180431</v>
+      </c>
+      <c r="F1786" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45352.92527777778</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>-0.1597704988483031</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>-0.1799578000590036</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>42.36567298912009</v>
+      </c>
+      <c r="F1787" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1787" t="inlineStr"/>
+    </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45352.9259837963</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>202.98</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>-0.1357250297077144</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>-0.1711112459887457</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>49.31929199653972</v>
+      </c>
+      <c r="F1788" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45352.92668981481</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>203.21</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>-0.09699168460085161</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>-0.1562873337111669</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>57.29549029000824</v>
+      </c>
+      <c r="F1789" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45352.92739583334</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>203.06</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>-0.07750554031940737</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>-0.140530975032815</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>51.59267362826227</v>
+      </c>
+      <c r="F1790" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45352.92811342593</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>202.88</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>-0.07571433849983578</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>-0.1275676477262191</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>45.71274325447967</v>
+      </c>
+      <c r="F1791" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45352.92884259259</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>202.86</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>-0.07504357538192608</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>-0.1170628332573605</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>45.09773484839496</v>
+      </c>
+      <c r="F1792" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1792" t="inlineStr"/>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45352.92957175926</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>202.84</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>-0.07525829287780539</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>-0.1087019251814495</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>44.45366053447116</v>
+      </c>
+      <c r="F1793" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45352.93027777778</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>202.95</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>-0.0657939456979193</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>-0.1001203292847435</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>48.78595255741712</v>
+      </c>
+      <c r="F1794" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45352.93100694445</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>-0.04566325835529028</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>-0.08922891509885285</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>54.04903499590214</v>
+      </c>
+      <c r="F1795" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45352.93171296296</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>203.09</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>-0.03016869410274126</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>-0.07741687089963054</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>53.65317653030753</v>
+      </c>
+      <c r="F1796" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45352.93241898148</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>202.96</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>-0.02805564582394027</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>-0.06754462588449249</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>48.66338560762893</v>
+      </c>
+      <c r="F1797" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45352.93314814815</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>203.01</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>-0.02209179722004251</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>-0.0584540601516025</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>50.56757508107492</v>
+      </c>
+      <c r="F1798" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45352.93385416667</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>203.05</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>-0.01397662469881311</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>-0.04955857306104462</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>52.09833887123889</v>
+      </c>
+      <c r="F1799" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45352.93462962963</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>203.06</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>-0.00666158497762126</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>-0.04097917544435995</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>52.49440320526406</v>
+      </c>
+      <c r="F1800" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45352.93534722222</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>203.14</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>0.005527253379170816</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>-0.0316778896796538</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>55.65340662151446</v>
+      </c>
+      <c r="F1801" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1801" t="inlineStr"/>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45352.93605324074</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>203.21</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>0.02059797000200092</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>-0.02122271774332286</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>58.2683574818027</v>
+      </c>
+      <c r="F1802" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45352.93675925926</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>203.32</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>0.04094570558964961</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>-0.008789033076728363</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>62.05486401428119</v>
+      </c>
+      <c r="F1803" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45352.93746527778</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>203.34</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>0.05801648753904942</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>0.004572071046427194</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>62.7172380551606</v>
+      </c>
+      <c r="F1804" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45352.93818287037</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>203.28</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>0.06594355046195233</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>0.01684636692953222</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>59.36902529601869</v>
+      </c>
+      <c r="F1805" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45352.93888888889</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>203.18</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>0.0634255108663524</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>0.02616219571689626</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>54.17767953399785</v>
+      </c>
+      <c r="F1806" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45352.93959490741</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>203.02</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>0.04796635721322673</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>0.03052302801616235</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>47.08362397859393</v>
+      </c>
+      <c r="F1807" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45352.94032407407</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>202.96</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>0.03052153475320551</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>0.03052272936357098</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>44.71889589720176</v>
+      </c>
+      <c r="F1808" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45352.9410300926</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>202.95</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>0.01570839425312442</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>0.02755986234148167</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>44.31937601566294</v>
+      </c>
+      <c r="F1809" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45352.94173611111</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>202.83</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>-0.005649005218458569</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>0.02091808882949363</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>39.73210093918301</v>
+      </c>
+      <c r="F1810" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45352.94244212963</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>202.88</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>-0.0183290303860133</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>0.01306866498639224</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>42.40698170098211</v>
+      </c>
+      <c r="F1811" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1811" t="inlineStr"/>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45352.94314814815</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>202.91</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>-0.02566148280635616</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>0.005322635427842564</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>44.01260826413135</v>
+      </c>
+      <c r="F1812" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45352.94385416667</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>202.82</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>-0.03829333034016713</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>-0.003400557725759375</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>40.37594305079089</v>
+      </c>
+      <c r="F1813" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45352.94457175926</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>202.92</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>-0.03977647777728066</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>-0.01067574173606363</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>45.74061597704354</v>
+      </c>
+      <c r="F1814" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45352.9453125</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>202.84</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>-0.0468669610653194</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>-0.01791398560191479</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>42.45002187665064</v>
+      </c>
+      <c r="F1815" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45352.94603009259</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>202.83</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>-0.05268580738999162</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>-0.02486834995953015</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>42.0428672921947</v>
+      </c>
+      <c r="F1816" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1816" t="inlineStr"/>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45352.94673611111</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>202.78</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>-0.06063292850029711</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>-0.03202126566768355</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>39.97815815257329</v>
+      </c>
+      <c r="F1817" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45352.94746527778</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>-0.05659568232178458</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>-0.03693614899850375</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>46.73859965294078</v>
+      </c>
+      <c r="F1818" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45352.9481712963</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>202.93</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>-0.05039447027510846</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>-0.0396278132538247</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>48.30617736969187</v>
+      </c>
+      <c r="F1819" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45352.94888888889</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>-0.03937762926673827</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>-0.03957777645640741</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>51.86601193166119</v>
+      </c>
+      <c r="F1820" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1820" t="inlineStr"/>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45352.9495949074</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>203.06</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>-0.02551112842806447</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>-0.03676444685073882</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>54.74285526350332</v>
+      </c>
+      <c r="F1821" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45352.95030092593</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>202.91</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>-0.02632214767496066</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>-0.03467598701558319</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>47.15503358249177</v>
+      </c>
+      <c r="F1822" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45352.95100694444</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>203.21</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>-0.002725970188322435</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>-0.02828598365013104</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>59.30436068964787</v>
+      </c>
+      <c r="F1823" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45352.95171296296</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>203.19</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>0.01419668704693322</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>-0.01978944951071819</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>58.3413775080294</v>
+      </c>
+      <c r="F1824" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45352.95243055555</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>203.11</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>0.02091162719369777</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>-0.011649234169835</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>54.52728992350404</v>
+      </c>
+      <c r="F1825" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1825" t="inlineStr"/>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45352.95313657408</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>202.93</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>0.01157533668538235</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>-0.007004319998791532</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>47.07082477701763</v>
+      </c>
+      <c r="F1826" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45352.95385416667</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>203</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>0.009712712079874564</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>-0.003660913583058313</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>49.93789546075258</v>
+      </c>
+      <c r="F1827" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45352.95456018519</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>203.01</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>0.008940425427908849</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>-0.001140645780864881</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>50.35164240857677</v>
+      </c>
+      <c r="F1828" t="inlineStr">
+        <is>
+          <t>NO SE REALIZA OPERACION</t>
+        </is>
+      </c>
+      <c r="G1828" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
